--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tailee\Desktop\DBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8CA062-0724-4287-B0B3-0C2305801CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD95908-323C-4E6E-8086-4AA391227133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{C5462A9A-A501-4BD1-9EFE-54C67653B45A}"/>
   </bookViews>
@@ -1991,7 +1991,7 @@
         <v>137</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>CONCATENATE(A2,",",B2)</f>
+        <f t="shared" ref="C2:C65" si="0">CONCATENATE(A2,",",B2)</f>
         <v>ngứa,mẩn đỏ,da liễu</v>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
         <v>137</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>CONCATENATE(A3,",",B3)</f>
+        <f t="shared" si="0"/>
         <v>da khô,nứt nẻ,da liễu</v>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
         <v>137</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>CONCATENATE(A4,",",B4)</f>
+        <f t="shared" si="0"/>
         <v>sưng,đau,đỏ,ấn đau,da liễu</v>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
         <v>137</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>CONCATENATE(A5,",",B5)</f>
+        <f t="shared" si="0"/>
         <v>nổi mụn đỏ,da liễu</v>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
         <v>137</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>CONCATENATE(A6,",",B6)</f>
+        <f t="shared" si="0"/>
         <v>da bị sần sùi,bong tróc,da liễu</v>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
         <v>137</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>CONCATENATE(A7,",",B7)</f>
+        <f t="shared" si="0"/>
         <v>nổi vẩy,bong tróc,da liễu</v>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
         <v>137</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>CONCATENATE(A8,",",B8)</f>
+        <f t="shared" si="0"/>
         <v>da sần,khô,mẩn đỏ,da liễu</v>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
         <v>137</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>CONCATENATE(A9,",",B9)</f>
+        <f t="shared" si="0"/>
         <v>da đỏ,viêm,ngứa,da liễu</v>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
         <v>137</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>CONCATENATE(A10,",",B10)</f>
+        <f t="shared" si="0"/>
         <v>đau,rát,sưng,đỏ,da liễu</v>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
         <v>137</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>CONCATENATE(A11,",",B11)</f>
+        <f t="shared" si="0"/>
         <v>sưng,nổi mẩn đỏ,da liễu</v>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
         <v>137</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>CONCATENATE(A12,",",B12)</f>
+        <f t="shared" si="0"/>
         <v>sưng,nóng,đỏ,da liễu</v>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>137</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>CONCATENATE(A13,",",B13)</f>
+        <f t="shared" si="0"/>
         <v>bị ngứa,đau,nổi đốm đỏ,da liễu</v>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
         <v>137</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>CONCATENATE(A14,",",B14)</f>
+        <f t="shared" si="0"/>
         <v>da bị khô,nứt nẻ,đau,da liễu</v>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
         <v>137</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>CONCATENATE(A15,",",B15)</f>
+        <f t="shared" si="0"/>
         <v>nổi vẩy,ngứa,đau,da liễu</v>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
         <v>137</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>CONCATENATE(A16,",",B16)</f>
+        <f t="shared" si="0"/>
         <v>da bị khô,đau,nứt nẻ,da liễu</v>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
         <v>137</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>CONCATENATE(A17,",",B17)</f>
+        <f t="shared" si="0"/>
         <v>sưng,đau,ngứa,nổi mẩn đỏ,da liễu</v>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
         <v>137</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>CONCATENATE(A18,",",B18)</f>
+        <f t="shared" si="0"/>
         <v>nổi mụn đỏ,viêm,ngứa,da liễu</v>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
         <v>137</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f>CONCATENATE(A19,",",B19)</f>
+        <f t="shared" si="0"/>
         <v>nổi mẩn đỏ,bị ngứa,đau,da liễu</v>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
         <v>137</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>CONCATENATE(A20,",",B20)</f>
+        <f t="shared" si="0"/>
         <v>da bị sưng,đau,nổi mẩn đỏ,da liễu</v>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
         <v>137</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>CONCATENATE(A21,",",B21)</f>
+        <f t="shared" si="0"/>
         <v>da bị sần sùi,ngứa,đau,da liễu</v>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
         <v>137</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>CONCATENATE(A22,",",B22)</f>
+        <f t="shared" si="0"/>
         <v>sưng,đau,nổi mụn đỏ,ngứa,da liễu</v>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
         <v>137</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>CONCATENATE(A23,",",B23)</f>
+        <f t="shared" si="0"/>
         <v>da bị nổi vẩy,sưng,đau,da liễu</v>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
         <v>137</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>CONCATENATE(A24,",",B24)</f>
+        <f t="shared" si="0"/>
         <v>nổi mụn đỏ,sưng,đau,da liễu</v>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
         <v>137</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f>CONCATENATE(A25,",",B25)</f>
+        <f t="shared" si="0"/>
         <v>da bị sưng,đỏ,nổi vẩy,da liễu</v>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
         <v>137</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f>CONCATENATE(A26,",",B26)</f>
+        <f t="shared" si="0"/>
         <v>sưng,đau,ngứa,nổi mụn,da liễu</v>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
         <v>137</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>CONCATENATE(A27,",",B27)</f>
+        <f t="shared" si="0"/>
         <v>da bị nổi mẩn đỏ,ngứa,đau,da liễu</v>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
         <v>137</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f>CONCATENATE(A28,",",B28)</f>
+        <f t="shared" si="0"/>
         <v>da bị sần sùi,đau,ngứa,da liễu</v>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
         <v>137</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f>CONCATENATE(A29,",",B29)</f>
+        <f t="shared" si="0"/>
         <v>nổi vẩy,ngứa,đau,sưng,da liễu</v>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>137</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>CONCATENATE(A30,",",B30)</f>
+        <f t="shared" si="0"/>
         <v>sưng,đau,nổi mụn đỏ,viêm,da liễu</v>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
         <v>137</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f>CONCATENATE(A31,",",B31)</f>
+        <f t="shared" si="0"/>
         <v>da bị sần sùi,nổi mụn đỏ,đau,da liễu</v>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
         <v>137</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>CONCATENATE(A32,",",B32)</f>
+        <f t="shared" si="0"/>
         <v>da bị nổi mẩn đỏ,ngứa,sưng,da liễu</v>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
         <v>137</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>CONCATENATE(A33,",",B33)</f>
+        <f t="shared" si="0"/>
         <v>sưng,nổi vẩy,đau,nứt nẻ,da liễu</v>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
         <v>137</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f>CONCATENATE(A34,",",B34)</f>
+        <f t="shared" si="0"/>
         <v>da bị nổi mụn đỏ,sưng,đau,da liễu</v>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
         <v>137</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f>CONCATENATE(A35,",",B35)</f>
+        <f t="shared" si="0"/>
         <v>sưng,đau,ngứa,nổi vẩy,da liễu</v>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
         <v>137</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>CONCATENATE(A36,",",B36)</f>
+        <f t="shared" si="0"/>
         <v>nổi mụn đỏ,sưng,đau,ngứa,da liễu</v>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
         <v>137</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f>CONCATENATE(A37,",",B37)</f>
+        <f t="shared" si="0"/>
         <v>da bị nổi vẩy,đau,sưng,da liễu</v>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
         <v>137</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>CONCATENATE(A38,",",B38)</f>
+        <f t="shared" si="0"/>
         <v>nổi mẩn đỏ,sưng,đau,ngứa,da liễu</v>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
         <v>137</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>CONCATENATE(A39,",",B39)</f>
+        <f t="shared" si="0"/>
         <v>sưng,đau,nổi vẩy,ngứa,da liễu</v>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
         <v>137</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>CONCATENATE(A40,",",B40)</f>
+        <f t="shared" si="0"/>
         <v>da bị khô,nứt nẻ,nổi mụn đỏ,da liễu</v>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
         <v>137</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>CONCATENATE(A41,",",B41)</f>
+        <f t="shared" si="0"/>
         <v>sưng,đau,nổi mẩn đỏ,sần sùi,da liễu</v>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
         <v>137</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>CONCATENATE(A42,",",B42)</f>
+        <f t="shared" si="0"/>
         <v>da bị sưng,đau,nổi vẩy,nứt nẻ,da liễu</v>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
         <v>137</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f>CONCATENATE(A43,",",B43)</f>
+        <f t="shared" si="0"/>
         <v>nổi mụn đỏ,đau,ngứa,sưng,da liễu</v>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
         <v>137</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f>CONCATENATE(A44,",",B44)</f>
+        <f t="shared" si="0"/>
         <v>da bị nổi vẩy,sần sùi,ngứa,da liễu</v>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
         <v>137</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f>CONCATENATE(A45,",",B45)</f>
+        <f t="shared" si="0"/>
         <v>sưng,đau,nổi mẩn đỏ,bong tróc,da liễu</v>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
         <v>137</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f>CONCATENATE(A46,",",B46)</f>
+        <f t="shared" si="0"/>
         <v>da bị sần sùi,đau,nổi mụn đỏ,da liễu</v>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
         <v>137</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f>CONCATENATE(A47,",",B47)</f>
+        <f t="shared" si="0"/>
         <v>nổi vẩy,sưng,đau,mẩn đỏ,da liễu</v>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
         <v>137</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f>CONCATENATE(A48,",",B48)</f>
+        <f t="shared" si="0"/>
         <v>da bị khô,sần sùi,nổi mẩn đỏ,da liễu</v>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
         <v>137</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f>CONCATENATE(A49,",",B49)</f>
+        <f t="shared" si="0"/>
         <v>sưng,đau,nổi mụn đỏ,bị nứt nẻ,da liễu</v>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
         <v>137</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f>CONCATENATE(A50,",",B50)</f>
+        <f t="shared" si="0"/>
         <v>nổi vẩy,sưng,đau,nổi mụn đỏ,da liễu</v>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
         <v>137</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f>CONCATENATE(A51,",",B51)</f>
+        <f t="shared" si="0"/>
         <v>da bị ngứa,đau,nổi mẩn đỏ,sưng tấy,da liễu</v>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
         <v>472</v>
       </c>
       <c r="C52" s="2" t="str">
-        <f>CONCATENATE(A52,",",B52)</f>
+        <f t="shared" si="0"/>
         <v>mất ngủ,đau khớp,nội tiết</v>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
         <v>472</v>
       </c>
       <c r="C53" s="2" t="str">
-        <f>CONCATENATE(A53,",",B53)</f>
+        <f t="shared" si="0"/>
         <v>tiểu đường,thiếu máu,nội tiết</v>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
         <v>472</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f>CONCATENATE(A54,",",B54)</f>
+        <f t="shared" si="0"/>
         <v>tiểu đường,béo phì,nội tiết</v>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
         <v>472</v>
       </c>
       <c r="C55" s="2" t="str">
-        <f>CONCATENATE(A55,",",B55)</f>
+        <f t="shared" si="0"/>
         <v>tiểu đường,mệt mỏi,nội tiết</v>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
         <v>472</v>
       </c>
       <c r="C56" s="2" t="str">
-        <f>CONCATENATE(A56,",",B56)</f>
+        <f t="shared" si="0"/>
         <v>tiểu đường,tăng huyết áp,nội tiết</v>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
         <v>472</v>
       </c>
       <c r="C57" s="2" t="str">
-        <f>CONCATENATE(A57,",",B57)</f>
+        <f t="shared" si="0"/>
         <v>tiểu đường,đau đầu,nội tiết</v>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
         <v>472</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f>CONCATENATE(A58,",",B58)</f>
+        <f t="shared" si="0"/>
         <v>tiểu đường,đau xương khớp,nội tiết</v>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
         <v>472</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f>CONCATENATE(A59,",",B59)</f>
+        <f t="shared" si="0"/>
         <v>tiểu đường,sỏi thận,nội tiết</v>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
         <v>472</v>
       </c>
       <c r="C60" s="2" t="str">
-        <f>CONCATENATE(A60,",",B60)</f>
+        <f t="shared" si="0"/>
         <v>tiểu đường,suy giảm trí nhớ,nội tiết</v>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
         <v>472</v>
       </c>
       <c r="C61" s="2" t="str">
-        <f>CONCATENATE(A61,",",B61)</f>
+        <f t="shared" si="0"/>
         <v>tiểu đường,táo bón,nội tiết</v>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
         <v>472</v>
       </c>
       <c r="C62" s="2" t="str">
-        <f>CONCATENATE(A62,",",B62)</f>
+        <f t="shared" si="0"/>
         <v>tiểu đường,bệnh gan nhiễm mỡ,nội tiết</v>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
         <v>472</v>
       </c>
       <c r="C63" s="2" t="str">
-        <f>CONCATENATE(A63,",",B63)</f>
+        <f t="shared" si="0"/>
         <v>béo phì,khó thở,nội tiết</v>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
         <v>472</v>
       </c>
       <c r="C64" s="2" t="str">
-        <f>CONCATENATE(A64,",",B64)</f>
+        <f t="shared" si="0"/>
         <v>béo phì,đau lưng,nội tiết</v>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
         <v>472</v>
       </c>
       <c r="C65" s="2" t="str">
-        <f>CONCATENATE(A65,",",B65)</f>
+        <f t="shared" si="0"/>
         <v>béo phì,mất ngủ,nội tiết</v>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
         <v>472</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f>CONCATENATE(A66,",",B66)</f>
+        <f t="shared" ref="C66:C129" si="1">CONCATENATE(A66,",",B66)</f>
         <v>béo phì,hoảng loạn,nội tiết</v>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
         <v>472</v>
       </c>
       <c r="C67" s="2" t="str">
-        <f>CONCATENATE(A67,",",B67)</f>
+        <f t="shared" si="1"/>
         <v>béo phì,mất trí nhớ,nội tiết</v>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
         <v>472</v>
       </c>
       <c r="C68" s="2" t="str">
-        <f>CONCATENATE(A68,",",B68)</f>
+        <f t="shared" si="1"/>
         <v>béo phì,tiểu đêm nhiều lần,nội tiết</v>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
         <v>472</v>
       </c>
       <c r="C69" s="2" t="str">
-        <f>CONCATENATE(A69,",",B69)</f>
+        <f t="shared" si="1"/>
         <v>béo phì,khó tiêu hóa,nội tiết</v>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
         <v>472</v>
       </c>
       <c r="C70" s="2" t="str">
-        <f>CONCATENATE(A70,",",B70)</f>
+        <f t="shared" si="1"/>
         <v>béo phì,đau khớp,nội tiết</v>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
         <v>472</v>
       </c>
       <c r="C71" s="2" t="str">
-        <f>CONCATENATE(A71,",",B71)</f>
+        <f t="shared" si="1"/>
         <v>tăng huyết áp,đau đầu,nội tiết</v>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
         <v>472</v>
       </c>
       <c r="C72" s="2" t="str">
-        <f>CONCATENATE(A72,",",B72)</f>
+        <f t="shared" si="1"/>
         <v>tăng huyết áp,chóng mặt,nội tiết</v>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
         <v>472</v>
       </c>
       <c r="C73" s="2" t="str">
-        <f>CONCATENATE(A73,",",B73)</f>
+        <f t="shared" si="1"/>
         <v>tăng huyết áp,buồn nôn,nội tiết</v>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
         <v>472</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f>CONCATENATE(A74,",",B74)</f>
+        <f t="shared" si="1"/>
         <v>tăng huyết áp,đau ngực,nội tiết</v>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
         <v>472</v>
       </c>
       <c r="C75" s="2" t="str">
-        <f>CONCATENATE(A75,",",B75)</f>
+        <f t="shared" si="1"/>
         <v>tăng huyết áp,mất ngủ,nội tiết</v>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
         <v>472</v>
       </c>
       <c r="C76" s="2" t="str">
-        <f>CONCATENATE(A76,",",B76)</f>
+        <f t="shared" si="1"/>
         <v>tăng huyết áp,khó thở,nội tiết</v>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
         <v>472</v>
       </c>
       <c r="C77" s="2" t="str">
-        <f>CONCATENATE(A77,",",B77)</f>
+        <f t="shared" si="1"/>
         <v>tăng huyết áp,sụt cân,nội tiết</v>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
         <v>472</v>
       </c>
       <c r="C78" s="2" t="str">
-        <f>CONCATENATE(A78,",",B78)</f>
+        <f t="shared" si="1"/>
         <v>đái tháo đường,mỏi mệt,nội tiết</v>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
         <v>472</v>
       </c>
       <c r="C79" s="2" t="str">
-        <f>CONCATENATE(A79,",",B79)</f>
+        <f t="shared" si="1"/>
         <v>đái tháo đường,sỏi thận,nội tiết</v>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
         <v>472</v>
       </c>
       <c r="C80" s="2" t="str">
-        <f>CONCATENATE(A80,",",B80)</f>
+        <f t="shared" si="1"/>
         <v>đái tháo đường,mất trí nhớ,nội tiết</v>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
         <v>472</v>
       </c>
       <c r="C81" s="2" t="str">
-        <f>CONCATENATE(A81,",",B81)</f>
+        <f t="shared" si="1"/>
         <v>đái tháo đường,táo bón,nội tiết</v>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
         <v>472</v>
       </c>
       <c r="C82" s="2" t="str">
-        <f>CONCATENATE(A82,",",B82)</f>
+        <f t="shared" si="1"/>
         <v>đái tháo đường,đau đầu,nội tiết</v>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
         <v>472</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f>CONCATENATE(A83,",",B83)</f>
+        <f t="shared" si="1"/>
         <v>đái tháo đường,khó tiêu hóa,nội tiết</v>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
         <v>472</v>
       </c>
       <c r="C84" s="2" t="str">
-        <f>CONCATENATE(A84,",",B84)</f>
+        <f t="shared" si="1"/>
         <v>đái tháo đường,tăng huyết áp,nội tiết</v>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
         <v>472</v>
       </c>
       <c r="C85" s="2" t="str">
-        <f>CONCATENATE(A85,",",B85)</f>
+        <f t="shared" si="1"/>
         <v>đái tháo đường,bệnh gan nhiễm mỡ,nội tiết</v>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
         <v>472</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f>CONCATENATE(A86,",",B86)</f>
+        <f t="shared" si="1"/>
         <v>mất ngủ,chán ăn,nội tiết</v>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
         <v>472</v>
       </c>
       <c r="C87" s="2" t="str">
-        <f>CONCATENATE(A87,",",B87)</f>
+        <f t="shared" si="1"/>
         <v>mất ngủ,đau đầu,nội tiết</v>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
         <v>472</v>
       </c>
       <c r="C88" s="2" t="str">
-        <f>CONCATENATE(A88,",",B88)</f>
+        <f t="shared" si="1"/>
         <v>mất ngủ,mất trí nhớ,nội tiết</v>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
         <v>472</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f>CONCATENATE(A89,",",B89)</f>
+        <f t="shared" si="1"/>
         <v>mất ngủ,mất cân bằng,nội tiết</v>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
         <v>472</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f>CONCATENATE(A90,",",B90)</f>
+        <f t="shared" si="1"/>
         <v>mất ngủ,đau lưng,nội tiết</v>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
         <v>472</v>
       </c>
       <c r="C91" s="2" t="str">
-        <f>CONCATENATE(A91,",",B91)</f>
+        <f t="shared" si="1"/>
         <v>mất ngủ,khó thở,nội tiết</v>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
         <v>472</v>
       </c>
       <c r="C92" s="2" t="str">
-        <f>CONCATENATE(A92,",",B92)</f>
+        <f t="shared" si="1"/>
         <v>mất ngủ,suy giảm trí nhớ,nội tiết</v>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
         <v>472</v>
       </c>
       <c r="C93" s="2" t="str">
-        <f>CONCATENATE(A93,",",B93)</f>
+        <f t="shared" si="1"/>
         <v>mất ngủ,đau khớp,nội tiết</v>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
         <v>472</v>
       </c>
       <c r="C94" s="2" t="str">
-        <f>CONCATENATE(A94,",",B94)</f>
+        <f t="shared" si="1"/>
         <v>mất ngủ,tăng huyết áp,nội tiết</v>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
         <v>472</v>
       </c>
       <c r="C95" s="2" t="str">
-        <f>CONCATENATE(A95,",",B95)</f>
+        <f t="shared" si="1"/>
         <v>sỏi thận,đau lưng,nội tiết</v>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
         <v>472</v>
       </c>
       <c r="C96" s="2" t="str">
-        <f>CONCATENATE(A96,",",B96)</f>
+        <f t="shared" si="1"/>
         <v>sỏi thận,buồn nôn,nội tiết</v>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
         <v>472</v>
       </c>
       <c r="C97" s="2" t="str">
-        <f>CONCATENATE(A97,",",B97)</f>
+        <f t="shared" si="1"/>
         <v>sỏi thận,tiểu đêm nhiều lần,nội tiết</v>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
         <v>472</v>
       </c>
       <c r="C98" s="2" t="str">
-        <f>CONCATENATE(A98,",",B98)</f>
+        <f t="shared" si="1"/>
         <v>sỏi thận,nôn mửa,nội tiết</v>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
         <v>472</v>
       </c>
       <c r="C99" s="2" t="str">
-        <f>CONCATENATE(A99,",",B99)</f>
+        <f t="shared" si="1"/>
         <v>sỏi thận,đau bụng dưới,nội tiết</v>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
         <v>472</v>
       </c>
       <c r="C100" s="2" t="str">
-        <f>CONCATENATE(A100,",",B100)</f>
+        <f t="shared" si="1"/>
         <v>sỏi thận,khó thở,nội tiết</v>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
         <v>472</v>
       </c>
       <c r="C101" s="2" t="str">
-        <f>CONCATENATE(A101,",",B101)</f>
+        <f t="shared" si="1"/>
         <v>tiểu đường,tăng huyết áp,mệt mỏi,nội tiết</v>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
         <v>472</v>
       </c>
       <c r="C102" s="2" t="str">
-        <f>CONCATENATE(A102,",",B102)</f>
+        <f t="shared" si="1"/>
         <v>tiểu đường,béo phì,đau xương khớp,nội tiết</v>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
         <v>472</v>
       </c>
       <c r="C103" s="2" t="str">
-        <f>CONCATENATE(A103,",",B103)</f>
+        <f t="shared" si="1"/>
         <v>béo phì,khó thở,đau lưng,nội tiết</v>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
         <v>472</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f>CONCATENATE(A104,",",B104)</f>
+        <f t="shared" si="1"/>
         <v>tăng huyết áp,đau đầu,chóng mặt,nội tiết</v>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
         <v>472</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f>CONCATENATE(A105,",",B105)</f>
+        <f t="shared" si="1"/>
         <v>tăng huyết áp,mất ngủ,buồn nôn,nội tiết</v>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
         <v>472</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f>CONCATENATE(A106,",",B106)</f>
+        <f t="shared" si="1"/>
         <v>đái tháo đường,sỏi thận,đau đầu,nội tiết</v>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
         <v>472</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f>CONCATENATE(A107,",",B107)</f>
+        <f t="shared" si="1"/>
         <v>mất ngủ,đau đầu,chán ăn,nội tiết</v>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
         <v>472</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f>CONCATENATE(A108,",",B108)</f>
+        <f t="shared" si="1"/>
         <v>sỏi thận,đau lưng,tiểu đêm nhiều lần,nội tiết</v>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
         <v>472</v>
       </c>
       <c r="C109" s="2" t="str">
-        <f>CONCATENATE(A109,",",B109)</f>
+        <f t="shared" si="1"/>
         <v>suy giảm chức năng tuyến giáp,mệt mỏi,tóc rụng,nội tiết</v>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
         <v>472</v>
       </c>
       <c r="C110" s="2" t="str">
-        <f>CONCATENATE(A110,",",B110)</f>
+        <f t="shared" si="1"/>
         <v>suy giảm chức năng tuyến giáp,tăng cân,khô da,nội tiết</v>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
         <v>472</v>
       </c>
       <c r="C111" s="2" t="str">
-        <f>CONCATENATE(A111,",",B111)</f>
+        <f t="shared" si="1"/>
         <v>viêm tuyến tạo dịch,đau ngực,khó thở,nội tiết</v>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
         <v>472</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f>CONCATENATE(A112,",",B112)</f>
+        <f t="shared" si="1"/>
         <v>viêm tuyến tạo dịch,ho,sốt,nội tiết</v>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
         <v>472</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f>CONCATENATE(A113,",",B113)</f>
+        <f t="shared" si="1"/>
         <v>suy giảm chức năng tuyến thượng thận,mất trí nhớ,đau đầu,nội tiết</v>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
         <v>472</v>
       </c>
       <c r="C114" s="2" t="str">
-        <f>CONCATENATE(A114,",",B114)</f>
+        <f t="shared" si="1"/>
         <v>suy giảm chức năng tuyến thượng thận,đái buốt,tiểu nhiều lần,nội tiết</v>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
         <v>472</v>
       </c>
       <c r="C115" s="2" t="str">
-        <f>CONCATENATE(A115,",",B115)</f>
+        <f t="shared" si="1"/>
         <v>tăng nồng độ cortisol,mụn trên mặt,tăng cân,nội tiết</v>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
         <v>472</v>
       </c>
       <c r="C116" s="2" t="str">
-        <f>CONCATENATE(A116,",",B116)</f>
+        <f t="shared" si="1"/>
         <v>tăng nồng độ cortisol,cảm giác lo lắng,khó ngủ,nội tiết</v>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
         <v>472</v>
       </c>
       <c r="C117" s="2" t="str">
-        <f>CONCATENATE(A117,",",B117)</f>
+        <f t="shared" si="1"/>
         <v>viêm tuyến tạo dịch,đau khớp,sưng khớp,nội tiết</v>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
         <v>472</v>
       </c>
       <c r="C118" s="2" t="str">
-        <f>CONCATENATE(A118,",",B118)</f>
+        <f t="shared" si="1"/>
         <v>viêm tuyến tạo dịch,mất trí nhớ,rối loạn tình cảm,nội tiết</v>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
         <v>472</v>
       </c>
       <c r="C119" s="2" t="str">
-        <f>CONCATENATE(A119,",",B119)</f>
+        <f t="shared" si="1"/>
         <v>đái tháo đường,đau mắt,khó chịu ở chân tay,nội tiết</v>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
         <v>472</v>
       </c>
       <c r="C120" s="2" t="str">
-        <f>CONCATENATE(A120,",",B120)</f>
+        <f t="shared" si="1"/>
         <v>đái tháo đường,mất cân bằng nước điện giải,buồn nôn,nội tiết</v>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
         <v>472</v>
       </c>
       <c r="C121" s="2" t="str">
-        <f>CONCATENATE(A121,",",B121)</f>
+        <f t="shared" si="1"/>
         <v>tăng nồng độ prolactin,kinh nguyệt không đều,sữa chảy ra khỏi vú,nội tiết</v>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
         <v>472</v>
       </c>
       <c r="C122" s="2" t="str">
-        <f>CONCATENATE(A122,",",B122)</f>
+        <f t="shared" si="1"/>
         <v>tăng nồng độ prolactin,sữa chảy ra khỏi vú,giảm ham muốn tình dục,nội tiết</v>
       </c>
     </row>
@@ -3443,7 +3443,7 @@
         <v>472</v>
       </c>
       <c r="C123" s="2" t="str">
-        <f>CONCATENATE(A123,",",B123)</f>
+        <f t="shared" si="1"/>
         <v>suy giảm chức năng tuyến giáp,chán ăn,khó chịu,nội tiết</v>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
         <v>472</v>
       </c>
       <c r="C124" s="2" t="str">
-        <f>CONCATENATE(A124,",",B124)</f>
+        <f t="shared" si="1"/>
         <v>suy giảm chức năng tuyến giáp,suy nhược,rụng tóc,nội tiết</v>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
         <v>472</v>
       </c>
       <c r="C125" s="2" t="str">
-        <f>CONCATENATE(A125,",",B125)</f>
+        <f t="shared" si="1"/>
         <v>viêm tuyến tạo dịch,ho,khó thở,nội tiết</v>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
         <v>472</v>
       </c>
       <c r="C126" s="2" t="str">
-        <f>CONCATENATE(A126,",",B126)</f>
+        <f t="shared" si="1"/>
         <v>viêm tuyến tạo dịch,khó chịu ở cổ,khó nuốt,nội tiết</v>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
         <v>472</v>
       </c>
       <c r="C127" s="2" t="str">
-        <f>CONCATENATE(A127,",",B127)</f>
+        <f t="shared" si="1"/>
         <v>tăng nồng độ estrogen,giảm ham muốn tình dục,kinh nguyệt không đều,nội tiết</v>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
         <v>472</v>
       </c>
       <c r="C128" s="2" t="str">
-        <f>CONCATENATE(A128,",",B128)</f>
+        <f t="shared" si="1"/>
         <v>tăng nồng độ estrogen,đau ngực,phù ở chân,nội tiết</v>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
         <v>472</v>
       </c>
       <c r="C129" s="2" t="str">
-        <f>CONCATENATE(A129,",",B129)</f>
+        <f t="shared" si="1"/>
         <v>đái tháo đường,tiểu đêm nhiều lần,tăng cân,nội tiết</v>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
         <v>472</v>
       </c>
       <c r="C130" s="2" t="str">
-        <f>CONCATENATE(A130,",",B130)</f>
+        <f t="shared" ref="C130:C193" si="2">CONCATENATE(A130,",",B130)</f>
         <v>đái tháo đường,mất cảm giác ở chân,loét chân,nội tiết</v>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
         <v>472</v>
       </c>
       <c r="C131" s="2" t="str">
-        <f>CONCATENATE(A131,",",B131)</f>
+        <f t="shared" si="2"/>
         <v>tăng nồng độ androgen,rụng tóc,mụn trên mặt,nội tiết</v>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
         <v>472</v>
       </c>
       <c r="C132" s="2" t="str">
-        <f>CONCATENATE(A132,",",B132)</f>
+        <f t="shared" si="2"/>
         <v>tăng nồng độ androgen,rụng tóc,tăng cân,nội tiết</v>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
         <v>472</v>
       </c>
       <c r="C133" s="2" t="str">
-        <f>CONCATENATE(A133,",",B133)</f>
+        <f t="shared" si="2"/>
         <v>suy giảm chức năng tuyến thượng thận,mất trí nhớ,mệt mỏi,nội tiết</v>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
         <v>472</v>
       </c>
       <c r="C134" s="2" t="str">
-        <f>CONCATENATE(A134,",",B134)</f>
+        <f t="shared" si="2"/>
         <v>suy giảm chức năng tuyến thượng thận,chóng mặt,nội tiết</v>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
         <v>472</v>
       </c>
       <c r="C135" s="2" t="str">
-        <f>CONCATENATE(A135,",",B135)</f>
+        <f t="shared" si="2"/>
         <v>viêm tuyến tạo dịch,sưng môi,mắt thâm quầng,nội tiết</v>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
         <v>472</v>
       </c>
       <c r="C136" s="2" t="str">
-        <f>CONCATENATE(A136,",",B136)</f>
+        <f t="shared" si="2"/>
         <v>viêm tuyến tạo dịch,sưng tay chân,mất cảm giác tay chân,nội tiết</v>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
         <v>472</v>
       </c>
       <c r="C137" s="2" t="str">
-        <f>CONCATENATE(A137,",",B137)</f>
+        <f t="shared" si="2"/>
         <v>tăng nồng độ insulin,đau bụng dưới,tiêu chảy,nội tiết</v>
       </c>
     </row>
@@ -3623,7 +3623,7 @@
         <v>472</v>
       </c>
       <c r="C138" s="2" t="str">
-        <f>CONCATENATE(A138,",",B138)</f>
+        <f t="shared" si="2"/>
         <v>tăng nồng độ insulin,tăng cân,mệt mỏi,nội tiết</v>
       </c>
     </row>
@@ -3635,7 +3635,7 @@
         <v>472</v>
       </c>
       <c r="C139" s="2" t="str">
-        <f>CONCATENATE(A139,",",B139)</f>
+        <f t="shared" si="2"/>
         <v>suy giảm chức năng tuyến giáp,đau khớp,mất trí nhớ,nội tiết</v>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
         <v>472</v>
       </c>
       <c r="C140" s="2" t="str">
-        <f>CONCATENATE(A140,",",B140)</f>
+        <f t="shared" si="2"/>
         <v>suy giảm chức năng tuyến giáp,khó thở,mất ngủ,nội tiết</v>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
         <v>472</v>
       </c>
       <c r="C141" s="2" t="str">
-        <f>CONCATENATE(A141,",",B141)</f>
+        <f t="shared" si="2"/>
         <v>tăng nồng độ cortisol,tăng cân,khó ngủ,nội tiết</v>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
         <v>472</v>
       </c>
       <c r="C142" s="2" t="str">
-        <f>CONCATENATE(A142,",",B142)</f>
+        <f t="shared" si="2"/>
         <v>tăng nồng độ cortisol,sụt cân,mệt mỏi,nội tiết</v>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
         <v>472</v>
       </c>
       <c r="C143" s="2" t="str">
-        <f>CONCATENATE(A143,",",B143)</f>
+        <f t="shared" si="2"/>
         <v>viêm tuyến tạo dịch,khó thở,sốt,nội tiết</v>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
         <v>472</v>
       </c>
       <c r="C144" s="2" t="str">
-        <f>CONCATENATE(A144,",",B144)</f>
+        <f t="shared" si="2"/>
         <v>viêm tuyến tạo dịch,đau bụng,tiêu chảy,nội tiết</v>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
         <v>472</v>
       </c>
       <c r="C145" s="2" t="str">
-        <f>CONCATENATE(A145,",",B145)</f>
+        <f t="shared" si="2"/>
         <v>tăng nồng độ prolactin,mất kinh,tăng cân,nội tiết</v>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
         <v>472</v>
       </c>
       <c r="C146" s="2" t="str">
-        <f>CONCATENATE(A146,",",B146)</f>
+        <f t="shared" si="2"/>
         <v>tăng nồng độ prolactin,giảm ham muốn tình dục,sữa chảy ra khỏi vú,nội tiết</v>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
         <v>472</v>
       </c>
       <c r="C147" s="2" t="str">
-        <f>CONCATENATE(A147,",",B147)</f>
+        <f t="shared" si="2"/>
         <v>suy giảm chức năng tuyến giáp,giảm ham muốn tình dục,mệt mỏi,nội tiết</v>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
         <v>472</v>
       </c>
       <c r="C148" s="2" t="str">
-        <f>CONCATENATE(A148,",",B148)</f>
+        <f t="shared" si="2"/>
         <v>suy giảm chức năng tuyến giáp,mất trí nhớ,đau khớp,nội tiết</v>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
         <v>472</v>
       </c>
       <c r="C149" s="2" t="str">
-        <f>CONCATENATE(A149,",",B149)</f>
+        <f t="shared" si="2"/>
         <v>viêm tuyến tạo dịch,sưng đầu gối,đau khớp,nội tiết</v>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
         <v>472</v>
       </c>
       <c r="C150" s="2" t="str">
-        <f>CONCATENATE(A150,",",B150)</f>
+        <f t="shared" si="2"/>
         <v>viêm tuyến tạo dịch,sốt,khó thở,nội tiết</v>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
         <v>472</v>
       </c>
       <c r="C151" s="2" t="str">
-        <f>CONCATENATE(A151,",",B151)</f>
+        <f t="shared" si="2"/>
         <v>đái tháo đường,khát nước,mắt mờ,nội tiết</v>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
         <v>472</v>
       </c>
       <c r="C152" s="2" t="str">
-        <f>CONCATENATE(A152,",",B152)</f>
+        <f t="shared" si="2"/>
         <v>đái tháo đường,đau tim,đau chân khi đi bộ,nội tiết</v>
       </c>
     </row>
@@ -3803,7 +3803,7 @@
         <v>472</v>
       </c>
       <c r="C153" s="2" t="str">
-        <f>CONCATENATE(A153,",",B153)</f>
+        <f t="shared" si="2"/>
         <v>tăng nồng độ estrogen,tăng cân,mất kinh,nội tiết</v>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
         <v>472</v>
       </c>
       <c r="C154" s="2" t="str">
-        <f>CONCATENATE(A154,",",B154)</f>
+        <f t="shared" si="2"/>
         <v>tăng nồng độ estrogen,đau bụng kinh,mất ngủ,nội tiết</v>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
         <v>472</v>
       </c>
       <c r="C155" s="2" t="str">
-        <f>CONCATENATE(A155,",",B155)</f>
+        <f t="shared" si="2"/>
         <v>suy giảm chức năng tuyến thượng thận,chóng mặt,mệt mỏi,nội tiết</v>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
         <v>472</v>
       </c>
       <c r="C156" s="2" t="str">
-        <f>CONCATENATE(A156,",",B156)</f>
+        <f t="shared" si="2"/>
         <v>suy giảm chức năng tuyến thượng thận,đái buốt,tiểu đêm nhiều lần,nội tiết</v>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
         <v>472</v>
       </c>
       <c r="C157" s="2" t="str">
-        <f>CONCATENATE(A157,",",B157)</f>
+        <f t="shared" si="2"/>
         <v>tăng nồng độ androgen,mụn trên lưng,rụng tóc,nội tiết</v>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
         <v>472</v>
       </c>
       <c r="C158" s="2" t="str">
-        <f>CONCATENATE(A158,",",B158)</f>
+        <f t="shared" si="2"/>
         <v>tăng nồng độ androgen,tăng cân,rụng tóc,nội tiết</v>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
         <v>137</v>
       </c>
       <c r="C159" s="2" t="str">
-        <f>CONCATENATE(A159,",",B159)</f>
+        <f t="shared" si="2"/>
         <v>da khô,nứt nẻ,bong tróc,da liễu</v>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
         <v>137</v>
       </c>
       <c r="C160" s="2" t="str">
-        <f>CONCATENATE(A160,",",B160)</f>
+        <f t="shared" si="2"/>
         <v>sưng,đau,đỏ,nóng,ngứa,mẩn đỏ,viêm,da liễu</v>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
         <v>137</v>
       </c>
       <c r="C161" s="2" t="str">
-        <f>CONCATENATE(A161,",",B161)</f>
+        <f t="shared" si="2"/>
         <v>nổi mụn đỏ,vẩy,da liễu</v>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
         <v>137</v>
       </c>
       <c r="C162" s="2" t="str">
-        <f>CONCATENATE(A162,",",B162)</f>
+        <f t="shared" si="2"/>
         <v>da sần sùi,ngứa,bị nứt nẻ,da liễu</v>
       </c>
     </row>
@@ -3923,7 +3923,7 @@
         <v>137</v>
       </c>
       <c r="C163" s="2" t="str">
-        <f>CONCATENATE(A163,",",B163)</f>
+        <f t="shared" si="2"/>
         <v>nổi đốm đỏ,da liễu</v>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
         <v>137</v>
       </c>
       <c r="C164" s="2" t="str">
-        <f>CONCATENATE(A164,",",B164)</f>
+        <f t="shared" si="2"/>
         <v>sưng tấy,da liễu</v>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
         <v>137</v>
       </c>
       <c r="C165" s="2" t="str">
-        <f>CONCATENATE(A165,",",B165)</f>
+        <f t="shared" si="2"/>
         <v>nổi mụn đỏ,sưng,ngứa,đau,da liễu</v>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
         <v>137</v>
       </c>
       <c r="C166" s="2" t="str">
-        <f>CONCATENATE(A166,",",B166)</f>
+        <f t="shared" si="2"/>
         <v>da bị nổi đốm đỏ,ngứa,sưng,đau,da liễu</v>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
         <v>137</v>
       </c>
       <c r="C167" s="2" t="str">
-        <f>CONCATENATE(A167,",",B167)</f>
+        <f t="shared" si="2"/>
         <v>da bị vảy,sưng,ngứa,đau,da liễu</v>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
         <v>137</v>
       </c>
       <c r="C168" s="2" t="str">
-        <f>CONCATENATE(A168,",",B168)</f>
+        <f t="shared" si="2"/>
         <v>da bị nổi mẩn đỏ,sưng,ngứa,đau,da liễu</v>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
         <v>137</v>
       </c>
       <c r="C169" s="2" t="str">
-        <f>CONCATENATE(A169,",",B169)</f>
+        <f t="shared" si="2"/>
         <v>da bị bong tróc,sưng,ngứa,đau,da liễu</v>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
         <v>137</v>
       </c>
       <c r="C170" s="2" t="str">
-        <f>CONCATENATE(A170,",",B170)</f>
+        <f t="shared" si="2"/>
         <v>da bị nứt nẻ,sưng,ngứa,đau,da liễu</v>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
         <v>137</v>
       </c>
       <c r="C171" s="2" t="str">
-        <f>CONCATENATE(A171,",",B171)</f>
+        <f t="shared" si="2"/>
         <v>da bị bầm tím,sưng,đau,nóng,da liễu</v>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
         <v>137</v>
       </c>
       <c r="C172" s="2" t="str">
-        <f>CONCATENATE(A172,",",B172)</f>
+        <f t="shared" si="2"/>
         <v>da bị kích ứng,nổi đốm đỏ,ngứa,sưng,da liễu</v>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
         <v>137</v>
       </c>
       <c r="C173" s="2" t="str">
-        <f>CONCATENATE(A173,",",B173)</f>
+        <f t="shared" si="2"/>
         <v>da bị nổi vẩy,sưng,đau,ngứa,da liễu</v>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
         <v>137</v>
       </c>
       <c r="C174" s="2" t="str">
-        <f>CONCATENATE(A174,",",B174)</f>
+        <f t="shared" si="2"/>
         <v>da bị viêm,đỏ,sưng,nóng,da liễu</v>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
         <v>137</v>
       </c>
       <c r="C175" s="2" t="str">
-        <f>CONCATENATE(A175,",",B175)</f>
+        <f t="shared" si="2"/>
         <v>da bị nổi mụn trứng cá,sưng,ngứa,đau,da liễu</v>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
         <v>137</v>
       </c>
       <c r="C176" s="2" t="str">
-        <f>CONCATENATE(A176,",",B176)</f>
+        <f t="shared" si="2"/>
         <v>da bị sần sùi,ngứa,đau,nổi mẩn đỏ,da liễu</v>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
         <v>137</v>
       </c>
       <c r="C177" s="2" t="str">
-        <f>CONCATENATE(A177,",",B177)</f>
+        <f t="shared" si="2"/>
         <v>da bị ngứa,nổi mẩn đỏ,sưng,bong tróc,da liễu</v>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
         <v>137</v>
       </c>
       <c r="C178" s="2" t="str">
-        <f>CONCATENATE(A178,",",B178)</f>
+        <f t="shared" si="2"/>
         <v>da bị bong tróc,nổi vẩy,đau,ngứa,da liễu</v>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
         <v>137</v>
       </c>
       <c r="C179" s="2" t="str">
-        <f>CONCATENATE(A179,",",B179)</f>
+        <f t="shared" si="2"/>
         <v>da bị khô,nổi mẩn đỏ,sưng,đau,da liễu</v>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
         <v>137</v>
       </c>
       <c r="C180" s="2" t="str">
-        <f>CONCATENATE(A180,",",B180)</f>
+        <f t="shared" si="2"/>
         <v>da bị sưng,nóng,đau,nổi mẩn đỏ,da liễu</v>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
         <v>137</v>
       </c>
       <c r="C181" s="2" t="str">
-        <f>CONCATENATE(A181,",",B181)</f>
+        <f t="shared" si="2"/>
         <v>da bị nổi vết sẹo,sưng,đau,ngứa,da liễu</v>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
         <v>137</v>
       </c>
       <c r="C182" s="2" t="str">
-        <f>CONCATENATE(A182,",",B182)</f>
+        <f t="shared" si="2"/>
         <v>da bị nóng,đỏ,sưng,đau,da liễu</v>
       </c>
     </row>
@@ -4163,7 +4163,7 @@
         <v>137</v>
       </c>
       <c r="C183" s="2" t="str">
-        <f>CONCATENATE(A183,",",B183)</f>
+        <f t="shared" si="2"/>
         <v>da bị nổi mụn cám,ngứa,đau,sưng,da liễu</v>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
         <v>137</v>
       </c>
       <c r="C184" s="2" t="str">
-        <f>CONCATENATE(A184,",",B184)</f>
+        <f t="shared" si="2"/>
         <v>da bị nổi nốt đỏ,sưng,ngứa,đau,da liễu</v>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
         <v>137</v>
       </c>
       <c r="C185" s="2" t="str">
-        <f>CONCATENATE(A185,",",B185)</f>
+        <f t="shared" si="2"/>
         <v>da bị sưng,đỏ,nổi mẩn đỏ,ngứa,da liễu</v>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
         <v>137</v>
       </c>
       <c r="C186" s="2" t="str">
-        <f>CONCATENATE(A186,",",B186)</f>
+        <f t="shared" si="2"/>
         <v>da bị sần sùi,đau,nổi mụn đỏ,ngứa,da liễu</v>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
         <v>137</v>
       </c>
       <c r="C187" s="2" t="str">
-        <f>CONCATENATE(A187,",",B187)</f>
+        <f t="shared" si="2"/>
         <v>da bị nổi vảy,sưng,nóng,ngứa,da liễu</v>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
         <v>137</v>
       </c>
       <c r="C188" s="2" t="str">
-        <f>CONCATENATE(A188,",",B188)</f>
+        <f t="shared" si="2"/>
         <v>da bị nứt nẻ,đau,sưng,ngứa,da liễu</v>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
         <v>137</v>
       </c>
       <c r="C189" s="2" t="str">
-        <f>CONCATENATE(A189,",",B189)</f>
+        <f t="shared" si="2"/>
         <v>da bị bong tróc,nóng,sưng,đau,da liễu</v>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
         <v>137</v>
       </c>
       <c r="C190" s="2" t="str">
-        <f>CONCATENATE(A190,",",B190)</f>
+        <f t="shared" si="2"/>
         <v>da bị ngứa,đỏ,sưng,bầm tím,da liễu</v>
       </c>
     </row>
@@ -4259,7 +4259,7 @@
         <v>137</v>
       </c>
       <c r="C191" s="2" t="str">
-        <f>CONCATENATE(A191,",",B191)</f>
+        <f t="shared" si="2"/>
         <v>da bị sưng,đau,bầm tím,nổi mụn đỏ,da liễu</v>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
         <v>137</v>
       </c>
       <c r="C192" s="2" t="str">
-        <f>CONCATENATE(A192,",",B192)</f>
+        <f t="shared" si="2"/>
         <v>da bị nổi vảy,sưng,đau,bầm tím,da liễu</v>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
         <v>137</v>
       </c>
       <c r="C193" s="2" t="str">
-        <f>CONCATENATE(A193,",",B193)</f>
+        <f t="shared" si="2"/>
         <v>da bị bầm tím,đau,sưng,nổi mụn đỏ,da liễu</v>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
         <v>137</v>
       </c>
       <c r="C194" s="2" t="str">
-        <f>CONCATENATE(A194,",",B194)</f>
+        <f t="shared" ref="C194:C257" si="3">CONCATENATE(A194,",",B194)</f>
         <v>da bị nổi mụn đỏ,ngứa,bầm tím,sưng,da liễu</v>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
         <v>137</v>
       </c>
       <c r="C195" s="2" t="str">
-        <f>CONCATENATE(A195,",",B195)</f>
+        <f t="shared" si="3"/>
         <v>da bị mẩn đỏ,ngứa,đau,sưng,da liễu</v>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
         <v>137</v>
       </c>
       <c r="C196" s="2" t="str">
-        <f>CONCATENATE(A196,",",B196)</f>
+        <f t="shared" si="3"/>
         <v>da bị nổi vẩy,sưng,đau,nổi mẩn đỏ,da liễu</v>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
         <v>137</v>
       </c>
       <c r="C197" s="2" t="str">
-        <f>CONCATENATE(A197,",",B197)</f>
+        <f t="shared" si="3"/>
         <v>da bị ngứa,đỏ,sưng,bong tróc,da liễu</v>
       </c>
     </row>
@@ -4343,7 +4343,7 @@
         <v>137</v>
       </c>
       <c r="C198" s="2" t="str">
-        <f>CONCATENATE(A198,",",B198)</f>
+        <f t="shared" si="3"/>
         <v>da bị sần sùi,nổi mẩn đỏ,ngứa,bong tróc,da liễu</v>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
         <v>137</v>
       </c>
       <c r="C199" s="2" t="str">
-        <f>CONCATENATE(A199,",",B199)</f>
+        <f t="shared" si="3"/>
         <v>da bị viêm,đỏ,sưng,ngứa,da liễu</v>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
         <v>137</v>
       </c>
       <c r="C200" s="2" t="str">
-        <f>CONCATENATE(A200,",",B200)</f>
+        <f t="shared" si="3"/>
         <v>da bị nổi mụn cám,ngứa,sưng,đau,da liễu</v>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
         <v>137</v>
       </c>
       <c r="C201" s="2" t="str">
-        <f>CONCATENATE(A201,",",B201)</f>
+        <f t="shared" si="3"/>
         <v>da bị bong tróc,sưng,nóng,đau,da liễu</v>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
         <v>137</v>
       </c>
       <c r="C202" s="2" t="str">
-        <f>CONCATENATE(A202,",",B202)</f>
+        <f t="shared" si="3"/>
         <v>da bị nổi mẩn đỏ,ngứa,sưng,bong tróc,da liễu</v>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
         <v>137</v>
       </c>
       <c r="C203" s="2" t="str">
-        <f>CONCATENATE(A203,",",B203)</f>
+        <f t="shared" si="3"/>
         <v>da bị bong tróc,đau,nổi vẩy,sưng,da liễu</v>
       </c>
     </row>
@@ -4415,7 +4415,7 @@
         <v>137</v>
       </c>
       <c r="C204" s="2" t="str">
-        <f>CONCATENATE(A204,",",B204)</f>
+        <f t="shared" si="3"/>
         <v>da bị sần sùi,nổi mẩn đỏ,ngứa,nóng,da liễu</v>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
         <v>137</v>
       </c>
       <c r="C205" s="2" t="str">
-        <f>CONCATENATE(A205,",",B205)</f>
+        <f t="shared" si="3"/>
         <v>da bị khô,đau,sưng,nổi mẩn đỏ,da liễu</v>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
         <v>137</v>
       </c>
       <c r="C206" s="2" t="str">
-        <f>CONCATENATE(A206,",",B206)</f>
+        <f t="shared" si="3"/>
         <v>da bị nổi đốm đỏ,ngứa,sưng,bầm tím,da liễu</v>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>137</v>
       </c>
       <c r="C207" s="2" t="str">
-        <f>CONCATENATE(A207,",",B207)</f>
+        <f t="shared" si="3"/>
         <v>da bị nóng,sưng,đau,bầm tím,da liễu</v>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
         <v>137</v>
       </c>
       <c r="C208" s="2" t="str">
-        <f>CONCATENATE(A208,",",B208)</f>
+        <f t="shared" si="3"/>
         <v>da bị sưng,nổi vảy,ngứa,đau,da liễu</v>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
         <v>137</v>
       </c>
       <c r="C209" s="2" t="str">
-        <f>CONCATENATE(A209,",",B209)</f>
+        <f t="shared" si="3"/>
         <v>da bị nổi mụn đỏ,sưng,ngứa,bầm tím,da liễu</v>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
         <v>137</v>
       </c>
       <c r="C210" s="2" t="str">
-        <f>CONCATENATE(A210,",",B210)</f>
+        <f t="shared" si="3"/>
         <v>da bị ngứa,đau,sưng,nổi mẩn đỏ,da liễu</v>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
         <v>137</v>
       </c>
       <c r="C211" s="2" t="str">
-        <f>CONCATENATE(A211,",",B211)</f>
+        <f t="shared" si="3"/>
         <v>da bị bong tróc,sần sùi,ngứa,nổi mẩn đỏ,da liễu</v>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
         <v>137</v>
       </c>
       <c r="C212" s="2" t="str">
-        <f>CONCATENATE(A212,",",B212)</f>
+        <f t="shared" si="3"/>
         <v>da bị viêm,đỏ,sưng,nổi mẩn đỏ,da liễu</v>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
         <v>137</v>
       </c>
       <c r="C213" s="2" t="str">
-        <f>CONCATENATE(A213,",",B213)</f>
+        <f t="shared" si="3"/>
         <v>da bị nổi mẩn đỏ,ngứa,đau,bầm tím,da liễu</v>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
         <v>358</v>
       </c>
       <c r="C214" s="2" t="str">
-        <f>CONCATENATE(A214,",",B214)</f>
+        <f t="shared" si="3"/>
         <v>ho,khò khè,hô hấp</v>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
         <v>358</v>
       </c>
       <c r="C215" s="2" t="str">
-        <f>CONCATENATE(A215,",",B215)</f>
+        <f t="shared" si="3"/>
         <v>sốt,đau đầu,hô hấp</v>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
         <v>358</v>
       </c>
       <c r="C216" s="2" t="str">
-        <f>CONCATENATE(A216,",",B216)</f>
+        <f t="shared" si="3"/>
         <v>khó thở,đau ngực,hô hấp</v>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
         <v>358</v>
       </c>
       <c r="C217" s="2" t="str">
-        <f>CONCATENATE(A217,",",B217)</f>
+        <f t="shared" si="3"/>
         <v>khó thở,mệt mỏi,hô hấp</v>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
         <v>358</v>
       </c>
       <c r="C218" s="2" t="str">
-        <f>CONCATENATE(A218,",",B218)</f>
+        <f t="shared" si="3"/>
         <v>đau họng,sổ mũi,hô hấp</v>
       </c>
     </row>
@@ -4595,7 +4595,7 @@
         <v>358</v>
       </c>
       <c r="C219" s="2" t="str">
-        <f>CONCATENATE(A219,",",B219)</f>
+        <f t="shared" si="3"/>
         <v>khó thở,ho khan,hô hấp</v>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
         <v>358</v>
       </c>
       <c r="C220" s="2" t="str">
-        <f>CONCATENATE(A220,",",B220)</f>
+        <f t="shared" si="3"/>
         <v>khó thở,đau họng,hô hấp</v>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
         <v>358</v>
       </c>
       <c r="C221" s="2" t="str">
-        <f>CONCATENATE(A221,",",B221)</f>
+        <f t="shared" si="3"/>
         <v>đau ngực,khó thở,hô hấp</v>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
         <v>358</v>
       </c>
       <c r="C222" s="2" t="str">
-        <f>CONCATENATE(A222,",",B222)</f>
+        <f t="shared" si="3"/>
         <v>sốt,ho khan,hô hấp</v>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
         <v>358</v>
       </c>
       <c r="C223" s="2" t="str">
-        <f>CONCATENATE(A223,",",B223)</f>
+        <f t="shared" si="3"/>
         <v>khó thở,đau đầu,hô hấp</v>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
         <v>358</v>
       </c>
       <c r="C224" s="2" t="str">
-        <f>CONCATENATE(A224,",",B224)</f>
+        <f t="shared" si="3"/>
         <v>sốt,đau họng,hô hấp</v>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
         <v>358</v>
       </c>
       <c r="C225" s="2" t="str">
-        <f>CONCATENATE(A225,",",B225)</f>
+        <f t="shared" si="3"/>
         <v>sốt,khó thở,hô hấp</v>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
         <v>358</v>
       </c>
       <c r="C226" s="2" t="str">
-        <f>CONCATENATE(A226,",",B226)</f>
+        <f t="shared" si="3"/>
         <v>ho khan,mệt mỏi,hô hấp</v>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
         <v>358</v>
       </c>
       <c r="C227" s="2" t="str">
-        <f>CONCATENATE(A227,",",B227)</f>
+        <f t="shared" si="3"/>
         <v>khó thở,đau cơ thể,hô hấp</v>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
         <v>358</v>
       </c>
       <c r="C228" s="2" t="str">
-        <f>CONCATENATE(A228,",",B228)</f>
+        <f t="shared" si="3"/>
         <v>đau họng,khó thở,hô hấp</v>
       </c>
     </row>
@@ -4715,7 +4715,7 @@
         <v>358</v>
       </c>
       <c r="C229" s="2" t="str">
-        <f>CONCATENATE(A229,",",B229)</f>
+        <f t="shared" si="3"/>
         <v>ho liên miên,sổ mũi,hô hấp</v>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
         <v>358</v>
       </c>
       <c r="C230" s="2" t="str">
-        <f>CONCATENATE(A230,",",B230)</f>
+        <f t="shared" si="3"/>
         <v>sốt,đau ngực,hô hấp</v>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
         <v>358</v>
       </c>
       <c r="C231" s="2" t="str">
-        <f>CONCATENATE(A231,",",B231)</f>
+        <f t="shared" si="3"/>
         <v>khó thở,nghẹt thở,hô hấp</v>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
         <v>358</v>
       </c>
       <c r="C232" s="2" t="str">
-        <f>CONCATENATE(A232,",",B232)</f>
+        <f t="shared" si="3"/>
         <v>khó thở,ho đờm,hô hấp</v>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
         <v>358</v>
       </c>
       <c r="C233" s="2" t="str">
-        <f>CONCATENATE(A233,",",B233)</f>
+        <f t="shared" si="3"/>
         <v>đau họng,ho khan,hô hấp</v>
       </c>
     </row>
@@ -4775,7 +4775,7 @@
         <v>358</v>
       </c>
       <c r="C234" s="2" t="str">
-        <f>CONCATENATE(A234,",",B234)</f>
+        <f t="shared" si="3"/>
         <v>đau ngực,ho khan,hô hấp</v>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
         <v>358</v>
       </c>
       <c r="C235" s="2" t="str">
-        <f>CONCATENATE(A235,",",B235)</f>
+        <f t="shared" si="3"/>
         <v>sốt,ho đờm,hô hấp</v>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
         <v>358</v>
       </c>
       <c r="C236" s="2" t="str">
-        <f>CONCATENATE(A236,",",B236)</f>
+        <f t="shared" si="3"/>
         <v>sốt,mệt mỏi,hô hấp</v>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
         <v>358</v>
       </c>
       <c r="C237" s="2" t="str">
-        <f>CONCATENATE(A237,",",B237)</f>
+        <f t="shared" si="3"/>
         <v>đau đầu,ho khan,hô hấp</v>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
         <v>358</v>
       </c>
       <c r="C238" s="2" t="str">
-        <f>CONCATENATE(A238,",",B238)</f>
+        <f t="shared" si="3"/>
         <v>khó thở,sổ mũi,hô hấp</v>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
         <v>358</v>
       </c>
       <c r="C239" s="2" t="str">
-        <f>CONCATENATE(A239,",",B239)</f>
+        <f t="shared" si="3"/>
         <v>sốt,khó thở đêm,hô hấp</v>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
         <v>358</v>
       </c>
       <c r="C240" s="2" t="str">
-        <f>CONCATENATE(A240,",",B240)</f>
+        <f t="shared" si="3"/>
         <v>ho khan,sổ mũi,hô hấp</v>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
         <v>358</v>
       </c>
       <c r="C241" s="2" t="str">
-        <f>CONCATENATE(A241,",",B241)</f>
+        <f t="shared" si="3"/>
         <v>đau ngực,mệt mỏi,hô hấp</v>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
         <v>358</v>
       </c>
       <c r="C242" s="2" t="str">
-        <f>CONCATENATE(A242,",",B242)</f>
+        <f t="shared" si="3"/>
         <v>khó thở,đau bụng,hô hấp</v>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
         <v>358</v>
       </c>
       <c r="C243" s="2" t="str">
-        <f>CONCATENATE(A243,",",B243)</f>
+        <f t="shared" si="3"/>
         <v>đau đầu,đau ngực,hô hấp</v>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
         <v>358</v>
       </c>
       <c r="C244" s="2" t="str">
-        <f>CONCATENATE(A244,",",B244)</f>
+        <f t="shared" si="3"/>
         <v>khó thở,ho liên miên,hô hấp</v>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
         <v>358</v>
       </c>
       <c r="C245" s="2" t="str">
-        <f>CONCATENATE(A245,",",B245)</f>
+        <f t="shared" si="3"/>
         <v>sốt,khó thở đêm,hô hấp</v>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
         <v>358</v>
       </c>
       <c r="C246" s="2" t="str">
-        <f>CONCATENATE(A246,",",B246)</f>
+        <f t="shared" si="3"/>
         <v>ho liên miên,đau đầu,hô hấp</v>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
         <v>358</v>
       </c>
       <c r="C247" s="2" t="str">
-        <f>CONCATENATE(A247,",",B247)</f>
+        <f t="shared" si="3"/>
         <v>đau họng,đau đầu,hô hấp</v>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
         <v>358</v>
       </c>
       <c r="C248" s="2" t="str">
-        <f>CONCATENATE(A248,",",B248)</f>
+        <f t="shared" si="3"/>
         <v>khó thở,đau xương,hô hấp</v>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
         <v>358</v>
       </c>
       <c r="C249" s="2" t="str">
-        <f>CONCATENATE(A249,",",B249)</f>
+        <f t="shared" si="3"/>
         <v>sốt,ho liên miên,hô hấp</v>
       </c>
     </row>
@@ -4967,7 +4967,7 @@
         <v>358</v>
       </c>
       <c r="C250" s="2" t="str">
-        <f>CONCATENATE(A250,",",B250)</f>
+        <f t="shared" si="3"/>
         <v>khó thở,khó nuốt,hô hấp</v>
       </c>
     </row>
@@ -4979,7 +4979,7 @@
         <v>358</v>
       </c>
       <c r="C251" s="2" t="str">
-        <f>CONCATENATE(A251,",",B251)</f>
+        <f t="shared" si="3"/>
         <v>đau ngực,nghẹt thở,hô hấp</v>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
         <v>358</v>
       </c>
       <c r="C252" s="2" t="str">
-        <f>CONCATENATE(A252,",",B252)</f>
+        <f t="shared" si="3"/>
         <v>sốt,khó thở vào ban đêm,hô hấp</v>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
         <v>358</v>
       </c>
       <c r="C253" s="2" t="str">
-        <f>CONCATENATE(A253,",",B253)</f>
+        <f t="shared" si="3"/>
         <v>sốt,đau bụng,hô hấp</v>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
         <v>358</v>
       </c>
       <c r="C254" s="2" t="str">
-        <f>CONCATENATE(A254,",",B254)</f>
+        <f t="shared" si="3"/>
         <v>khó thở,ho đờm đen,hô hấp</v>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
         <v>358</v>
       </c>
       <c r="C255" s="2" t="str">
-        <f>CONCATENATE(A255,",",B255)</f>
+        <f t="shared" si="3"/>
         <v>đau họng,khó thở vào ban đêm,hô hấp</v>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
         <v>358</v>
       </c>
       <c r="C256" s="2" t="str">
-        <f>CONCATENATE(A256,",",B256)</f>
+        <f t="shared" si="3"/>
         <v>đau ngực,đau đầu,hô hấp</v>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
         <v>358</v>
       </c>
       <c r="C257" s="2" t="str">
-        <f>CONCATENATE(A257,",",B257)</f>
+        <f t="shared" si="3"/>
         <v>sốt,khó thở ban ngày,hô hấp</v>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
         <v>358</v>
       </c>
       <c r="C258" s="2" t="str">
-        <f>CONCATENATE(A258,",",B258)</f>
+        <f t="shared" ref="C258:C321" si="4">CONCATENATE(A258,",",B258)</f>
         <v>ho khan,đau ngực,hô hấp</v>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
         <v>358</v>
       </c>
       <c r="C259" s="2" t="str">
-        <f>CONCATENATE(A259,",",B259)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,đau khớp,hô hấp</v>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
         <v>358</v>
       </c>
       <c r="C260" s="2" t="str">
-        <f>CONCATENATE(A260,",",B260)</f>
+        <f t="shared" si="4"/>
         <v>sốt,sổ mũi,hô hấp</v>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
         <v>358</v>
       </c>
       <c r="C261" s="2" t="str">
-        <f>CONCATENATE(A261,",",B261)</f>
+        <f t="shared" si="4"/>
         <v>đau đầu,đau cơ thể,hô hấp</v>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
         <v>358</v>
       </c>
       <c r="C262" s="2" t="str">
-        <f>CONCATENATE(A262,",",B262)</f>
+        <f t="shared" si="4"/>
         <v>đau họng,sổ mũi,hô hấp</v>
       </c>
     </row>
@@ -5123,7 +5123,7 @@
         <v>358</v>
       </c>
       <c r="C263" s="2" t="str">
-        <f>CONCATENATE(A263,",",B263)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,khó thở vào ban ngày,hô hấp</v>
       </c>
     </row>
@@ -5135,7 +5135,7 @@
         <v>358</v>
       </c>
       <c r="C264" s="2" t="str">
-        <f>CONCATENATE(A264,",",B264)</f>
+        <f t="shared" si="4"/>
         <v>sốt,ho đờm đen,hô hấp</v>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
         <v>358</v>
       </c>
       <c r="C265" s="2" t="str">
-        <f>CONCATENATE(A265,",",B265)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,ho đờm vàng,hô hấp</v>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
         <v>358</v>
       </c>
       <c r="C266" s="2" t="str">
-        <f>CONCATENATE(A266,",",B266)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,ho đờm lỏng,hô hấp</v>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
         <v>358</v>
       </c>
       <c r="C267" s="2" t="str">
-        <f>CONCATENATE(A267,",",B267)</f>
+        <f t="shared" si="4"/>
         <v>sốt,khó thở vào buổi sáng,hô hấp</v>
       </c>
     </row>
@@ -5183,7 +5183,7 @@
         <v>358</v>
       </c>
       <c r="C268" s="2" t="str">
-        <f>CONCATENATE(A268,",",B268)</f>
+        <f t="shared" si="4"/>
         <v>sốt,khó thở vào buổi tối,hô hấp</v>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
         <v>358</v>
       </c>
       <c r="C269" s="2" t="str">
-        <f>CONCATENATE(A269,",",B269)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,đau khớp,hô hấp</v>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
         <v>358</v>
       </c>
       <c r="C270" s="2" t="str">
-        <f>CONCATENATE(A270,",",B270)</f>
+        <f t="shared" si="4"/>
         <v>sốt,đau cơ thể,hô hấp</v>
       </c>
     </row>
@@ -5219,7 +5219,7 @@
         <v>358</v>
       </c>
       <c r="C271" s="2" t="str">
-        <f>CONCATENATE(A271,",",B271)</f>
+        <f t="shared" si="4"/>
         <v>đau họng,khó thở vào ban ngày,hô hấp</v>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
         <v>358</v>
       </c>
       <c r="C272" s="2" t="str">
-        <f>CONCATENATE(A272,",",B272)</f>
+        <f t="shared" si="4"/>
         <v>sốt,đau khớp,hô hấp</v>
       </c>
     </row>
@@ -5243,7 +5243,7 @@
         <v>358</v>
       </c>
       <c r="C273" s="2" t="str">
-        <f>CONCATENATE(A273,",",B273)</f>
+        <f t="shared" si="4"/>
         <v>đau ngực,đau bụng,hô hấp</v>
       </c>
     </row>
@@ -5255,7 +5255,7 @@
         <v>358</v>
       </c>
       <c r="C274" s="2" t="str">
-        <f>CONCATENATE(A274,",",B274)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,đau lưng,hô hấp</v>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
         <v>358</v>
       </c>
       <c r="C275" s="2" t="str">
-        <f>CONCATENATE(A275,",",B275)</f>
+        <f t="shared" si="4"/>
         <v>sốt,ho đau họng,hô hấp</v>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
         <v>358</v>
       </c>
       <c r="C276" s="2" t="str">
-        <f>CONCATENATE(A276,",",B276)</f>
+        <f t="shared" si="4"/>
         <v>sốt,sổ mũi và ho khan,hô hấp</v>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
         <v>358</v>
       </c>
       <c r="C277" s="2" t="str">
-        <f>CONCATENATE(A277,",",B277)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,ho liên miên,hô hấp</v>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
         <v>358</v>
       </c>
       <c r="C278" s="2" t="str">
-        <f>CONCATENATE(A278,",",B278)</f>
+        <f t="shared" si="4"/>
         <v>sốt,mệt mỏi và ho liên miên,hô hấp</v>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
         <v>358</v>
       </c>
       <c r="C279" s="2" t="str">
-        <f>CONCATENATE(A279,",",B279)</f>
+        <f t="shared" si="4"/>
         <v>sốt,ho khô và đau họng,hô hấp</v>
       </c>
     </row>
@@ -5327,7 +5327,7 @@
         <v>358</v>
       </c>
       <c r="C280" s="2" t="str">
-        <f>CONCATENATE(A280,",",B280)</f>
+        <f t="shared" si="4"/>
         <v>sốt,khó thở và đau đầu,hô hấp</v>
       </c>
     </row>
@@ -5339,7 +5339,7 @@
         <v>358</v>
       </c>
       <c r="C281" s="2" t="str">
-        <f>CONCATENATE(A281,",",B281)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,ho nặng,hô hấp</v>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
         <v>358</v>
       </c>
       <c r="C282" s="2" t="str">
-        <f>CONCATENATE(A282,",",B282)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,sổ mũi và đau đầu,hô hấp</v>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
         <v>358</v>
       </c>
       <c r="C283" s="2" t="str">
-        <f>CONCATENATE(A283,",",B283)</f>
+        <f t="shared" si="4"/>
         <v>sốt,đau đầu và đau ngực,hô hấp</v>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
         <v>358</v>
       </c>
       <c r="C284" s="2" t="str">
-        <f>CONCATENATE(A284,",",B284)</f>
+        <f t="shared" si="4"/>
         <v>sốt,ho khan và mệt mỏi,hô hấp</v>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
         <v>358</v>
       </c>
       <c r="C285" s="2" t="str">
-        <f>CONCATENATE(A285,",",B285)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,mệt mỏi và đau đầu,hô hấp</v>
       </c>
     </row>
@@ -5399,7 +5399,7 @@
         <v>358</v>
       </c>
       <c r="C286" s="2" t="str">
-        <f>CONCATENATE(A286,",",B286)</f>
+        <f t="shared" si="4"/>
         <v>đau ngực,ho đau họng và sổ mũi,hô hấp</v>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
         <v>358</v>
       </c>
       <c r="C287" s="2" t="str">
-        <f>CONCATENATE(A287,",",B287)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,đau đầu và mệt mỏi,hô hấp</v>
       </c>
     </row>
@@ -5423,7 +5423,7 @@
         <v>358</v>
       </c>
       <c r="C288" s="2" t="str">
-        <f>CONCATENATE(A288,",",B288)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,ho khan và đau đầu,hô hấp</v>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
         <v>358</v>
       </c>
       <c r="C289" s="2" t="str">
-        <f>CONCATENATE(A289,",",B289)</f>
+        <f t="shared" si="4"/>
         <v>sốt,ho và khó thở đêm,hô hấp</v>
       </c>
     </row>
@@ -5447,7 +5447,7 @@
         <v>358</v>
       </c>
       <c r="C290" s="2" t="str">
-        <f>CONCATENATE(A290,",",B290)</f>
+        <f t="shared" si="4"/>
         <v>sốt,ho nặng và đau họng,hô hấp</v>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
         <v>358</v>
       </c>
       <c r="C291" s="2" t="str">
-        <f>CONCATENATE(A291,",",B291)</f>
+        <f t="shared" si="4"/>
         <v>sốt,đau đầu và ho liên miên,hô hấp</v>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
         <v>358</v>
       </c>
       <c r="C292" s="2" t="str">
-        <f>CONCATENATE(A292,",",B292)</f>
+        <f t="shared" si="4"/>
         <v>sốt,ho khô và mệt mỏi,hô hấp</v>
       </c>
     </row>
@@ -5483,7 +5483,7 @@
         <v>358</v>
       </c>
       <c r="C293" s="2" t="str">
-        <f>CONCATENATE(A293,",",B293)</f>
+        <f t="shared" si="4"/>
         <v>sốt,ho đau họng và đau bụng,hô hấp</v>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
         <v>358</v>
       </c>
       <c r="C294" s="2" t="str">
-        <f>CONCATENATE(A294,",",B294)</f>
+        <f t="shared" si="4"/>
         <v>sốt,ho liên miên và đau đầu,hô hấp</v>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
         <v>358</v>
       </c>
       <c r="C295" s="2" t="str">
-        <f>CONCATENATE(A295,",",B295)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,ho khô và đau đầu,hô hấp</v>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
         <v>358</v>
       </c>
       <c r="C296" s="2" t="str">
-        <f>CONCATENATE(A296,",",B296)</f>
+        <f t="shared" si="4"/>
         <v>sốt,khó thở và ho liên miên,hô hấp</v>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
         <v>358</v>
       </c>
       <c r="C297" s="2" t="str">
-        <f>CONCATENATE(A297,",",B297)</f>
+        <f t="shared" si="4"/>
         <v>sốt,ho liên miên và sổ mũi,hô hấp</v>
       </c>
     </row>
@@ -5543,7 +5543,7 @@
         <v>358</v>
       </c>
       <c r="C298" s="2" t="str">
-        <f>CONCATENATE(A298,",",B298)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,ho đờm và đau đầu,hô hấp</v>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
         <v>358</v>
       </c>
       <c r="C299" s="2" t="str">
-        <f>CONCATENATE(A299,",",B299)</f>
+        <f t="shared" si="4"/>
         <v>sốt,khó thở và đau ngực,hô hấp</v>
       </c>
     </row>
@@ -5567,7 +5567,7 @@
         <v>358</v>
       </c>
       <c r="C300" s="2" t="str">
-        <f>CONCATENATE(A300,",",B300)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,ho và đau cơ thể,hô hấp</v>
       </c>
     </row>
@@ -5579,7 +5579,7 @@
         <v>358</v>
       </c>
       <c r="C301" s="2" t="str">
-        <f>CONCATENATE(A301,",",B301)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,sổ mũi và ho liên miên,hô hấp</v>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
         <v>358</v>
       </c>
       <c r="C302" s="2" t="str">
-        <f>CONCATENATE(A302,",",B302)</f>
+        <f t="shared" si="4"/>
         <v>sốt,ho và đau cơ thể,hô hấp</v>
       </c>
     </row>
@@ -5603,7 +5603,7 @@
         <v>358</v>
       </c>
       <c r="C303" s="2" t="str">
-        <f>CONCATENATE(A303,",",B303)</f>
+        <f t="shared" si="4"/>
         <v>sốt,đau đầu và đau lưng,hô hấp</v>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
         <v>358</v>
       </c>
       <c r="C304" s="2" t="str">
-        <f>CONCATENATE(A304,",",B304)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,ho đau họng và đau đầu,hô hấp</v>
       </c>
     </row>
@@ -5627,7 +5627,7 @@
         <v>358</v>
       </c>
       <c r="C305" s="2" t="str">
-        <f>CONCATENATE(A305,",",B305)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,ho khô và đau bụng,hô hấp</v>
       </c>
     </row>
@@ -5639,7 +5639,7 @@
         <v>358</v>
       </c>
       <c r="C306" s="2" t="str">
-        <f>CONCATENATE(A306,",",B306)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,ho và đau xương,hô hấp</v>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
         <v>358</v>
       </c>
       <c r="C307" s="2" t="str">
-        <f>CONCATENATE(A307,",",B307)</f>
+        <f t="shared" si="4"/>
         <v>sốt,ho liên miên và đau bụng,hô hấp</v>
       </c>
     </row>
@@ -5663,7 +5663,7 @@
         <v>358</v>
       </c>
       <c r="C308" s="2" t="str">
-        <f>CONCATENATE(A308,",",B308)</f>
+        <f t="shared" si="4"/>
         <v>sốt,đau đầu và sổ mũi,hô hấp</v>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
         <v>358</v>
       </c>
       <c r="C309" s="2" t="str">
-        <f>CONCATENATE(A309,",",B309)</f>
+        <f t="shared" si="4"/>
         <v>sốt,ho đau họng và khó thở vào ban đêm,hô hấp</v>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
         <v>358</v>
       </c>
       <c r="C310" s="2" t="str">
-        <f>CONCATENATE(A310,",",B310)</f>
+        <f t="shared" si="4"/>
         <v>sốt,ho đau họng và đau ngực,hô hấp</v>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
         <v>358</v>
       </c>
       <c r="C311" s="2" t="str">
-        <f>CONCATENATE(A311,",",B311)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,ho đờm đen và sổ mũi,hô hấp</v>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
         <v>358</v>
       </c>
       <c r="C312" s="2" t="str">
-        <f>CONCATENATE(A312,",",B312)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,ho và đau bụng,hô hấp</v>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
         <v>43</v>
       </c>
       <c r="C313" s="2" t="str">
-        <f>CONCATENATE(A313,",",B313)</f>
+        <f t="shared" si="4"/>
         <v>đau ngực,khó thở,tim mạch</v>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
         <v>43</v>
       </c>
       <c r="C314" s="2" t="str">
-        <f>CONCATENATE(A314,",",B314)</f>
+        <f t="shared" si="4"/>
         <v>mệt mỏi,chóng mặt,tim mạch</v>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
         <v>43</v>
       </c>
       <c r="C315" s="2" t="str">
-        <f>CONCATENATE(A315,",",B315)</f>
+        <f t="shared" si="4"/>
         <v>đau thắt ngực,ù tai,tim mạch</v>
       </c>
     </row>
@@ -5759,7 +5759,7 @@
         <v>43</v>
       </c>
       <c r="C316" s="2" t="str">
-        <f>CONCATENATE(A316,",",B316)</f>
+        <f t="shared" si="4"/>
         <v>đau thắt ngực,đau vai,tim mạch</v>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
         <v>43</v>
       </c>
       <c r="C317" s="2" t="str">
-        <f>CONCATENATE(A317,",",B317)</f>
+        <f t="shared" si="4"/>
         <v>đau ngực,đau cổ,tim mạch</v>
       </c>
     </row>
@@ -5783,7 +5783,7 @@
         <v>43</v>
       </c>
       <c r="C318" s="2" t="str">
-        <f>CONCATENATE(A318,",",B318)</f>
+        <f t="shared" si="4"/>
         <v>đau ngực,đau lưng,tim mạch</v>
       </c>
     </row>
@@ -5795,7 +5795,7 @@
         <v>43</v>
       </c>
       <c r="C319" s="2" t="str">
-        <f>CONCATENATE(A319,",",B319)</f>
+        <f t="shared" si="4"/>
         <v>đau ngực,mất cảm giác tay trái,tim mạch</v>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
         <v>43</v>
       </c>
       <c r="C320" s="2" t="str">
-        <f>CONCATENATE(A320,",",B320)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,ho,tim mạch</v>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
         <v>43</v>
       </c>
       <c r="C321" s="2" t="str">
-        <f>CONCATENATE(A321,",",B321)</f>
+        <f t="shared" si="4"/>
         <v>khó thở,đau ngực,tim mạch</v>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
         <v>43</v>
       </c>
       <c r="C322" s="2" t="str">
-        <f>CONCATENATE(A322,",",B322)</f>
+        <f t="shared" ref="C322:C385" si="5">CONCATENATE(A322,",",B322)</f>
         <v>khó thở,đau đầu,tim mạch</v>
       </c>
     </row>
@@ -5843,7 +5843,7 @@
         <v>43</v>
       </c>
       <c r="C323" s="2" t="str">
-        <f>CONCATENATE(A323,",",B323)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,buồn nôn,tim mạch</v>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
         <v>43</v>
       </c>
       <c r="C324" s="2" t="str">
-        <f>CONCATENATE(A324,",",B324)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,mệt mỏi,tim mạch</v>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
         <v>43</v>
       </c>
       <c r="C325" s="2" t="str">
-        <f>CONCATENATE(A325,",",B325)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,khó thở vào ban đêm,tim mạch</v>
       </c>
     </row>
@@ -5879,7 +5879,7 @@
         <v>43</v>
       </c>
       <c r="C326" s="2" t="str">
-        <f>CONCATENATE(A326,",",B326)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,nhức đầu,tim mạch</v>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
         <v>43</v>
       </c>
       <c r="C327" s="2" t="str">
-        <f>CONCATENATE(A327,",",B327)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,chóng mặt,tim mạch</v>
       </c>
     </row>
@@ -5903,7 +5903,7 @@
         <v>43</v>
       </c>
       <c r="C328" s="2" t="str">
-        <f>CONCATENATE(A328,",",B328)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,mất ngủ,tim mạch</v>
       </c>
     </row>
@@ -5915,7 +5915,7 @@
         <v>43</v>
       </c>
       <c r="C329" s="2" t="str">
-        <f>CONCATENATE(A329,",",B329)</f>
+        <f t="shared" si="5"/>
         <v>mất ngủ,mệt mỏi,tim mạch</v>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
         <v>43</v>
       </c>
       <c r="C330" s="2" t="str">
-        <f>CONCATENATE(A330,",",B330)</f>
+        <f t="shared" si="5"/>
         <v>mất ngủ,đau ngực,tim mạch</v>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
         <v>43</v>
       </c>
       <c r="C331" s="2" t="str">
-        <f>CONCATENATE(A331,",",B331)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,đau bụng,tim mạch</v>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
         <v>43</v>
       </c>
       <c r="C332" s="2" t="str">
-        <f>CONCATENATE(A332,",",B332)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,sốt,tim mạch</v>
       </c>
     </row>
@@ -5963,7 +5963,7 @@
         <v>43</v>
       </c>
       <c r="C333" s="2" t="str">
-        <f>CONCATENATE(A333,",",B333)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,rối loạn tiêu hóa,tim mạch</v>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
         <v>43</v>
       </c>
       <c r="C334" s="2" t="str">
-        <f>CONCATENATE(A334,",",B334)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,rối loạn giấc ngủ,tim mạch</v>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
         <v>43</v>
       </c>
       <c r="C335" s="2" t="str">
-        <f>CONCATENATE(A335,",",B335)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,mất cảm giác ở tay phải,tim mạch</v>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
         <v>43</v>
       </c>
       <c r="C336" s="2" t="str">
-        <f>CONCATENATE(A336,",",B336)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,đau đầu,tim mạch</v>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
         <v>43</v>
       </c>
       <c r="C337" s="2" t="str">
-        <f>CONCATENATE(A337,",",B337)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,đau khớp,tim mạch</v>
       </c>
     </row>
@@ -6023,7 +6023,7 @@
         <v>43</v>
       </c>
       <c r="C338" s="2" t="str">
-        <f>CONCATENATE(A338,",",B338)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,đau bụng dưới,tim mạch</v>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
         <v>43</v>
       </c>
       <c r="C339" s="2" t="str">
-        <f>CONCATENATE(A339,",",B339)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,đau cơ,tim mạch</v>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
         <v>43</v>
       </c>
       <c r="C340" s="2" t="str">
-        <f>CONCATENATE(A340,",",B340)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,mất trí nhớ,tim mạch</v>
       </c>
     </row>
@@ -6059,7 +6059,7 @@
         <v>43</v>
       </c>
       <c r="C341" s="2" t="str">
-        <f>CONCATENATE(A341,",",B341)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,mất cảm giác chân trái,tim mạch</v>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
         <v>43</v>
       </c>
       <c r="C342" s="2" t="str">
-        <f>CONCATENATE(A342,",",B342)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,sưng khớp,tim mạch</v>
       </c>
     </row>
@@ -6083,7 +6083,7 @@
         <v>43</v>
       </c>
       <c r="C343" s="2" t="str">
-        <f>CONCATENATE(A343,",",B343)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,co giật,tim mạch</v>
       </c>
     </row>
@@ -6095,7 +6095,7 @@
         <v>43</v>
       </c>
       <c r="C344" s="2" t="str">
-        <f>CONCATENATE(A344,",",B344)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,sốt rét,tim mạch</v>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
         <v>43</v>
       </c>
       <c r="C345" s="2" t="str">
-        <f>CONCATENATE(A345,",",B345)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,mất cảm giác mặt,tim mạch</v>
       </c>
     </row>
@@ -6119,7 +6119,7 @@
         <v>43</v>
       </c>
       <c r="C346" s="2" t="str">
-        <f>CONCATENATE(A346,",",B346)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,nôn mửa,tim mạch</v>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
         <v>43</v>
       </c>
       <c r="C347" s="2" t="str">
-        <f>CONCATENATE(A347,",",B347)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,chảy máu cam,tim mạch</v>
       </c>
     </row>
@@ -6143,7 +6143,7 @@
         <v>43</v>
       </c>
       <c r="C348" s="2" t="str">
-        <f>CONCATENATE(A348,",",B348)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,rối loạn nhịp tim,tim mạch</v>
       </c>
     </row>
@@ -6155,7 +6155,7 @@
         <v>43</v>
       </c>
       <c r="C349" s="2" t="str">
-        <f>CONCATENATE(A349,",",B349)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,run,tim mạch</v>
       </c>
     </row>
@@ -6167,7 +6167,7 @@
         <v>43</v>
       </c>
       <c r="C350" s="2" t="str">
-        <f>CONCATENATE(A350,",",B350)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,rối loạn thị lực,tim mạch</v>
       </c>
     </row>
@@ -6179,7 +6179,7 @@
         <v>43</v>
       </c>
       <c r="C351" s="2" t="str">
-        <f>CONCATENATE(A351,",",B351)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,nhiễm trùng đường tiết niệu,tim mạch</v>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
         <v>43</v>
       </c>
       <c r="C352" s="2" t="str">
-        <f>CONCATENATE(A352,",",B352)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,ngứa da,tim mạch</v>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
         <v>43</v>
       </c>
       <c r="C353" s="2" t="str">
-        <f>CONCATENATE(A353,",",B353)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,viêm họng,tim mạch</v>
       </c>
     </row>
@@ -6215,7 +6215,7 @@
         <v>43</v>
       </c>
       <c r="C354" s="2" t="str">
-        <f>CONCATENATE(A354,",",B354)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,đỏ da,tim mạch</v>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
         <v>43</v>
       </c>
       <c r="C355" s="2" t="str">
-        <f>CONCATENATE(A355,",",B355)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,cảm giác khó chịu ở đầu,tim mạch</v>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
         <v>43</v>
       </c>
       <c r="C356" s="2" t="str">
-        <f>CONCATENATE(A356,",",B356)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,mất cảm giác chân phải,tim mạch</v>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
         <v>43</v>
       </c>
       <c r="C357" s="2" t="str">
-        <f>CONCATENATE(A357,",",B357)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,sốt cao,tim mạch</v>
       </c>
     </row>
@@ -6263,7 +6263,7 @@
         <v>43</v>
       </c>
       <c r="C358" s="2" t="str">
-        <f>CONCATENATE(A358,",",B358)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,bỏng da,tim mạch</v>
       </c>
     </row>
@@ -6275,7 +6275,7 @@
         <v>43</v>
       </c>
       <c r="C359" s="2" t="str">
-        <f>CONCATENATE(A359,",",B359)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,đau bụng trên,tim mạch</v>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
         <v>43</v>
       </c>
       <c r="C360" s="2" t="str">
-        <f>CONCATENATE(A360,",",B360)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,ho liên tục,tim mạch</v>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
         <v>43</v>
       </c>
       <c r="C361" s="2" t="str">
-        <f>CONCATENATE(A361,",",B361)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,mất cảm giác vùng chậu,tim mạch</v>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
         <v>43</v>
       </c>
       <c r="C362" s="2" t="str">
-        <f>CONCATENATE(A362,",",B362)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực,khó thở khi tập thể dục,tim mạch</v>
       </c>
     </row>
@@ -6323,7 +6323,7 @@
         <v>43</v>
       </c>
       <c r="C363" s="2" t="str">
-        <f>CONCATENATE(A363,",",B363)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và mệt mỏi,tim mạch</v>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
         <v>43</v>
       </c>
       <c r="C364" s="2" t="str">
-        <f>CONCATENATE(A364,",",B364)</f>
+        <f t="shared" si="5"/>
         <v>khó thở và chóng mặt,tim mạch</v>
       </c>
     </row>
@@ -6347,7 +6347,7 @@
         <v>43</v>
       </c>
       <c r="C365" s="2" t="str">
-        <f>CONCATENATE(A365,",",B365)</f>
+        <f t="shared" si="5"/>
         <v>nhức đầu và khó thở,tim mạch</v>
       </c>
     </row>
@@ -6359,7 +6359,7 @@
         <v>43</v>
       </c>
       <c r="C366" s="2" t="str">
-        <f>CONCATENATE(A366,",",B366)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và buồn nôn,tim mạch</v>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
         <v>43</v>
       </c>
       <c r="C367" s="2" t="str">
-        <f>CONCATENATE(A367,",",B367)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và khó tiêu,tim mạch</v>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
         <v>43</v>
       </c>
       <c r="C368" s="2" t="str">
-        <f>CONCATENATE(A368,",",B368)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và đau lưng,tim mạch</v>
       </c>
     </row>
@@ -6395,7 +6395,7 @@
         <v>43</v>
       </c>
       <c r="C369" s="2" t="str">
-        <f>CONCATENATE(A369,",",B369)</f>
+        <f t="shared" si="5"/>
         <v>khó thở và đau cổ,tim mạch</v>
       </c>
     </row>
@@ -6407,7 +6407,7 @@
         <v>43</v>
       </c>
       <c r="C370" s="2" t="str">
-        <f>CONCATENATE(A370,",",B370)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và đau vai,tim mạch</v>
       </c>
     </row>
@@ -6419,7 +6419,7 @@
         <v>43</v>
       </c>
       <c r="C371" s="2" t="str">
-        <f>CONCATENATE(A371,",",B371)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và rối loạn giấc ngủ,tim mạch</v>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
         <v>43</v>
       </c>
       <c r="C372" s="2" t="str">
-        <f>CONCATENATE(A372,",",B372)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và đau khớp,tim mạch</v>
       </c>
     </row>
@@ -6443,7 +6443,7 @@
         <v>43</v>
       </c>
       <c r="C373" s="2" t="str">
-        <f>CONCATENATE(A373,",",B373)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và đau bụng,tim mạch</v>
       </c>
     </row>
@@ -6455,7 +6455,7 @@
         <v>43</v>
       </c>
       <c r="C374" s="2" t="str">
-        <f>CONCATENATE(A374,",",B374)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và đau đầu,tim mạch</v>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
         <v>43</v>
       </c>
       <c r="C375" s="2" t="str">
-        <f>CONCATENATE(A375,",",B375)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và mất ngủ,tim mạch</v>
       </c>
     </row>
@@ -6479,7 +6479,7 @@
         <v>43</v>
       </c>
       <c r="C376" s="2" t="str">
-        <f>CONCATENATE(A376,",",B376)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và ho,tim mạch</v>
       </c>
     </row>
@@ -6491,7 +6491,7 @@
         <v>43</v>
       </c>
       <c r="C377" s="2" t="str">
-        <f>CONCATENATE(A377,",",B377)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và sốt,tim mạch</v>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
         <v>43</v>
       </c>
       <c r="C378" s="2" t="str">
-        <f>CONCATENATE(A378,",",B378)</f>
+        <f t="shared" si="5"/>
         <v>khó thở và sốt,tim mạch</v>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
         <v>43</v>
       </c>
       <c r="C379" s="2" t="str">
-        <f>CONCATENATE(A379,",",B379)</f>
+        <f t="shared" si="5"/>
         <v>mệt mỏi và sốt,tim mạch</v>
       </c>
     </row>
@@ -6527,7 +6527,7 @@
         <v>43</v>
       </c>
       <c r="C380" s="2" t="str">
-        <f>CONCATENATE(A380,",",B380)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và suy nhược cơ thể,tim mạch</v>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
         <v>43</v>
       </c>
       <c r="C381" s="2" t="str">
-        <f>CONCATENATE(A381,",",B381)</f>
+        <f t="shared" si="5"/>
         <v>khó thở và đau thắt ngực,tim mạch</v>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
         <v>43</v>
       </c>
       <c r="C382" s="2" t="str">
-        <f>CONCATENATE(A382,",",B382)</f>
+        <f t="shared" si="5"/>
         <v>chóng mặt và rối loạn nhịp tim,tim mạch</v>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
         <v>43</v>
       </c>
       <c r="C383" s="2" t="str">
-        <f>CONCATENATE(A383,",",B383)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và đau nửa đầu,tim mạch</v>
       </c>
     </row>
@@ -6575,7 +6575,7 @@
         <v>43</v>
       </c>
       <c r="C384" s="2" t="str">
-        <f>CONCATENATE(A384,",",B384)</f>
+        <f t="shared" si="5"/>
         <v>đau ngực và khó nuốt,tim mạch</v>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
         <v>43</v>
       </c>
       <c r="C385" s="2" t="str">
-        <f>CONCATENATE(A385,",",B385)</f>
+        <f t="shared" si="5"/>
         <v>khó thở và đau khớp,tim mạch</v>
       </c>
     </row>
@@ -6599,7 +6599,7 @@
         <v>43</v>
       </c>
       <c r="C386" s="2" t="str">
-        <f>CONCATENATE(A386,",",B386)</f>
+        <f t="shared" ref="C386:C449" si="6">CONCATENATE(A386,",",B386)</f>
         <v>đau ngực và đau cổ,tim mạch</v>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
         <v>43</v>
       </c>
       <c r="C387" s="2" t="str">
-        <f>CONCATENATE(A387,",",B387)</f>
+        <f t="shared" si="6"/>
         <v>mệt mỏi và đau đầu,tim mạch</v>
       </c>
     </row>
@@ -6623,7 +6623,7 @@
         <v>43</v>
       </c>
       <c r="C388" s="2" t="str">
-        <f>CONCATENATE(A388,",",B388)</f>
+        <f t="shared" si="6"/>
         <v>đau ngực và đau bàn tay,tim mạch</v>
       </c>
     </row>
@@ -6635,7 +6635,7 @@
         <v>43</v>
       </c>
       <c r="C389" s="2" t="str">
-        <f>CONCATENATE(A389,",",B389)</f>
+        <f t="shared" si="6"/>
         <v>khó thở và đau lưng,tim mạch</v>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
         <v>43</v>
       </c>
       <c r="C390" s="2" t="str">
-        <f>CONCATENATE(A390,",",B390)</f>
+        <f t="shared" si="6"/>
         <v>đau ngực và khó ngủ,tim mạch</v>
       </c>
     </row>
@@ -6659,7 +6659,7 @@
         <v>43</v>
       </c>
       <c r="C391" s="2" t="str">
-        <f>CONCATENATE(A391,",",B391)</f>
+        <f t="shared" si="6"/>
         <v>khó thở và buồn nôn,tim mạch</v>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
         <v>43</v>
       </c>
       <c r="C392" s="2" t="str">
-        <f>CONCATENATE(A392,",",B392)</f>
+        <f t="shared" si="6"/>
         <v>đau ngực và đau răng,tim mạch</v>
       </c>
     </row>
@@ -6683,7 +6683,7 @@
         <v>43</v>
       </c>
       <c r="C393" s="2" t="str">
-        <f>CONCATENATE(A393,",",B393)</f>
+        <f t="shared" si="6"/>
         <v>mệt mỏi và chóng mặt,tim mạch</v>
       </c>
     </row>
@@ -6695,7 +6695,7 @@
         <v>43</v>
       </c>
       <c r="C394" s="2" t="str">
-        <f>CONCATENATE(A394,",",B394)</f>
+        <f t="shared" si="6"/>
         <v>đau ngực và khó thở khi nằm nghiêng,tim mạch</v>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
         <v>43</v>
       </c>
       <c r="C395" s="2" t="str">
-        <f>CONCATENATE(A395,",",B395)</f>
+        <f t="shared" si="6"/>
         <v>đau ngực và khó thở khi leo cầu thang,tim mạch</v>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
         <v>43</v>
       </c>
       <c r="C396" s="2" t="str">
-        <f>CONCATENATE(A396,",",B396)</f>
+        <f t="shared" si="6"/>
         <v>mệt mỏi và khó thở khi leo cầu thang,tim mạch</v>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
         <v>43</v>
       </c>
       <c r="C397" s="2" t="str">
-        <f>CONCATENATE(A397,",",B397)</f>
+        <f t="shared" si="6"/>
         <v>đau ngực và đau khuỷu tay,tim mạch</v>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
         <v>43</v>
       </c>
       <c r="C398" s="2" t="str">
-        <f>CONCATENATE(A398,",",B398)</f>
+        <f t="shared" si="6"/>
         <v>khó thở và đau vùng ngực,tim mạch</v>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
         <v>43</v>
       </c>
       <c r="C399" s="2" t="str">
-        <f>CONCATENATE(A399,",",B399)</f>
+        <f t="shared" si="6"/>
         <v>đau ngực và mất cảm giác ở tay,tim mạch</v>
       </c>
     </row>
@@ -6767,7 +6767,7 @@
         <v>43</v>
       </c>
       <c r="C400" s="2" t="str">
-        <f>CONCATENATE(A400,",",B400)</f>
+        <f t="shared" si="6"/>
         <v>mệt mỏi và đau ngực,tim mạch</v>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
         <v>43</v>
       </c>
       <c r="C401" s="2" t="str">
-        <f>CONCATENATE(A401,",",B401)</f>
+        <f t="shared" si="6"/>
         <v>khó thở và đau ngực,tim mạch</v>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
         <v>43</v>
       </c>
       <c r="C402" s="2" t="str">
-        <f>CONCATENATE(A402,",",B402)</f>
+        <f t="shared" si="6"/>
         <v>đau ngực và mất cảm giác ở chân,tim mạch</v>
       </c>
     </row>
@@ -6803,7 +6803,7 @@
         <v>43</v>
       </c>
       <c r="C403" s="2" t="str">
-        <f>CONCATENATE(A403,",",B403)</f>
+        <f t="shared" si="6"/>
         <v>chóng mặt và đau ngực,tim mạch</v>
       </c>
     </row>
@@ -6815,7 +6815,7 @@
         <v>43</v>
       </c>
       <c r="C404" s="2" t="str">
-        <f>CONCATENATE(A404,",",B404)</f>
+        <f t="shared" si="6"/>
         <v>mệt mỏi và đau khuỷu tay,tim mạch</v>
       </c>
     </row>
@@ -6827,7 +6827,7 @@
         <v>43</v>
       </c>
       <c r="C405" s="2" t="str">
-        <f>CONCATENATE(A405,",",B405)</f>
+        <f t="shared" si="6"/>
         <v>đau ngực và đau mỏi toàn thân,tim mạch</v>
       </c>
     </row>
@@ -6839,7 +6839,7 @@
         <v>43</v>
       </c>
       <c r="C406" s="2" t="str">
-        <f>CONCATENATE(A406,",",B406)</f>
+        <f t="shared" si="6"/>
         <v>khó thở và đau mỏi toàn thân,tim mạch</v>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
         <v>43</v>
       </c>
       <c r="C407" s="2" t="str">
-        <f>CONCATENATE(A407,",",B407)</f>
+        <f t="shared" si="6"/>
         <v>đau ngực và đau bụng dưới,tim mạch</v>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
         <v>43</v>
       </c>
       <c r="C408" s="2" t="str">
-        <f>CONCATENATE(A408,",",B408)</f>
+        <f t="shared" si="6"/>
         <v>mệt mỏi và đau cơ thể,tim mạch</v>
       </c>
     </row>
@@ -6875,7 +6875,7 @@
         <v>43</v>
       </c>
       <c r="C409" s="2" t="str">
-        <f>CONCATENATE(A409,",",B409)</f>
+        <f t="shared" si="6"/>
         <v>khó thở và đau cơ thể,tim mạch</v>
       </c>
     </row>
@@ -6887,7 +6887,7 @@
         <v>43</v>
       </c>
       <c r="C410" s="2" t="str">
-        <f>CONCATENATE(A410,",",B410)</f>
+        <f t="shared" si="6"/>
         <v>đau ngực và chóng mặt,tim mạch</v>
       </c>
     </row>
@@ -6899,7 +6899,7 @@
         <v>43</v>
       </c>
       <c r="C411" s="2" t="str">
-        <f>CONCATENATE(A411,",",B411)</f>
+        <f t="shared" si="6"/>
         <v>mệt mỏi và đau khớp,tim mạch</v>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
         <v>43</v>
       </c>
       <c r="C412" s="2" t="str">
-        <f>CONCATENATE(A412,",",B412)</f>
+        <f t="shared" si="6"/>
         <v>khó thở và mất cảm giác ở tay,tim mạch</v>
       </c>
     </row>
@@ -6923,7 +6923,7 @@
         <v>509</v>
       </c>
       <c r="C413" s="2" t="str">
-        <f>CONCATENATE(A413,",",B413)</f>
+        <f t="shared" si="6"/>
         <v>đau mắt,khó nhìn xa,mắt</v>
       </c>
     </row>
@@ -6935,7 +6935,7 @@
         <v>509</v>
       </c>
       <c r="C414" s="2" t="str">
-        <f>CONCATENATE(A414,",",B414)</f>
+        <f t="shared" si="6"/>
         <v>khó nhìn gần,nhìn mờ,mắt</v>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
         <v>509</v>
       </c>
       <c r="C415" s="2" t="str">
-        <f>CONCATENATE(A415,",",B415)</f>
+        <f t="shared" si="6"/>
         <v>sưng mắt,ngứa mắt,mắt</v>
       </c>
     </row>
@@ -6959,7 +6959,7 @@
         <v>509</v>
       </c>
       <c r="C416" s="2" t="str">
-        <f>CONCATENATE(A416,",",B416)</f>
+        <f t="shared" si="6"/>
         <v>mắt đỏ,chảy nước mắt,mắt</v>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
         <v>509</v>
       </c>
       <c r="C417" s="2" t="str">
-        <f>CONCATENATE(A417,",",B417)</f>
+        <f t="shared" si="6"/>
         <v>cảm giác mắt khô,kích ứng mắt,mắt</v>
       </c>
     </row>
@@ -6983,7 +6983,7 @@
         <v>509</v>
       </c>
       <c r="C418" s="2" t="str">
-        <f>CONCATENATE(A418,",",B418)</f>
+        <f t="shared" si="6"/>
         <v>nhức mắt,chảy máu mắt,mắt</v>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
         <v>509</v>
       </c>
       <c r="C419" s="2" t="str">
-        <f>CONCATENATE(A419,",",B419)</f>
+        <f t="shared" si="6"/>
         <v>Ánh sáng chói,nhìn mờ,mắt</v>
       </c>
     </row>
@@ -7007,7 +7007,7 @@
         <v>509</v>
       </c>
       <c r="C420" s="2" t="str">
-        <f>CONCATENATE(A420,",",B420)</f>
+        <f t="shared" si="6"/>
         <v>mắt thâm quầng,bị tím tái,mắt</v>
       </c>
     </row>
@@ -7019,7 +7019,7 @@
         <v>509</v>
       </c>
       <c r="C421" s="2" t="str">
-        <f>CONCATENATE(A421,",",B421)</f>
+        <f t="shared" si="6"/>
         <v>cảm giác sưng ở vùng quanh mắt,đau mắt khi di chuyển,mắt</v>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
         <v>509</v>
       </c>
       <c r="C422" s="2" t="str">
-        <f>CONCATENATE(A422,",",B422)</f>
+        <f t="shared" si="6"/>
         <v>nhìn mờ,bị chói khi nhìn vào ánh sáng,mắt</v>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
         <v>509</v>
       </c>
       <c r="C423" s="2" t="str">
-        <f>CONCATENATE(A423,",",B423)</f>
+        <f t="shared" si="6"/>
         <v>cảm giác có vật gì trong mắt,khó chịu khi nhìn,mắt</v>
       </c>
     </row>
@@ -7055,7 +7055,7 @@
         <v>509</v>
       </c>
       <c r="C424" s="2" t="str">
-        <f>CONCATENATE(A424,",",B424)</f>
+        <f t="shared" si="6"/>
         <v>giảm tầm nhìn,mờ mắt,mắt</v>
       </c>
     </row>
@@ -7067,7 +7067,7 @@
         <v>509</v>
       </c>
       <c r="C425" s="2" t="str">
-        <f>CONCATENATE(A425,",",B425)</f>
+        <f t="shared" si="6"/>
         <v>mắt đỏ,sưng,chảy nước mắt,mắt</v>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
         <v>509</v>
       </c>
       <c r="C426" s="2" t="str">
-        <f>CONCATENATE(A426,",",B426)</f>
+        <f t="shared" si="6"/>
         <v>cảm giác nặng mắt,mỏi mắt khi sử dụng máy tính hoặc đọc sách lâu,mắt</v>
       </c>
     </row>
@@ -7091,7 +7091,7 @@
         <v>509</v>
       </c>
       <c r="C427" s="2" t="str">
-        <f>CONCATENATE(A427,",",B427)</f>
+        <f t="shared" si="6"/>
         <v>đau mắt,khó nhìn khi sử dụng điện thoại,máy tính,mắt</v>
       </c>
     </row>
@@ -7103,7 +7103,7 @@
         <v>509</v>
       </c>
       <c r="C428" s="2" t="str">
-        <f>CONCATENATE(A428,",",B428)</f>
+        <f t="shared" si="6"/>
         <v>cảm giác khó chịu,ngứa ở vùng quanh mắt,sưng mắt,mắt</v>
       </c>
     </row>
@@ -7115,7 +7115,7 @@
         <v>509</v>
       </c>
       <c r="C429" s="2" t="str">
-        <f>CONCATENATE(A429,",",B429)</f>
+        <f t="shared" si="6"/>
         <v>đau mắt khi nhìn vào ánh sáng mạnh,chói mắt,mắt</v>
       </c>
     </row>
@@ -7127,7 +7127,7 @@
         <v>509</v>
       </c>
       <c r="C430" s="2" t="str">
-        <f>CONCATENATE(A430,",",B430)</f>
+        <f t="shared" si="6"/>
         <v>sưng mắt,mủ mắt,mắt</v>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
         <v>509</v>
       </c>
       <c r="C431" s="2" t="str">
-        <f>CONCATENATE(A431,",",B431)</f>
+        <f t="shared" si="6"/>
         <v>nhìn mờ,khó nhìn xa gần,mắt</v>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
         <v>509</v>
       </c>
       <c r="C432" s="2" t="str">
-        <f>CONCATENATE(A432,",",B432)</f>
+        <f t="shared" si="6"/>
         <v>cảm giác đau nhức ở vùng xung quanh mắt,mắt sưng đỏ,mắt</v>
       </c>
     </row>
@@ -7163,7 +7163,7 @@
         <v>509</v>
       </c>
       <c r="C433" s="2" t="str">
-        <f>CONCATENATE(A433,",",B433)</f>
+        <f t="shared" si="6"/>
         <v>mắt khô,khó chịu khi nhìn lâu,mắt</v>
       </c>
     </row>
@@ -7175,7 +7175,7 @@
         <v>509</v>
       </c>
       <c r="C434" s="2" t="str">
-        <f>CONCATENATE(A434,",",B434)</f>
+        <f t="shared" si="6"/>
         <v>chảy máu mắt,nhức mắt,mắt</v>
       </c>
     </row>
@@ -7187,7 +7187,7 @@
         <v>509</v>
       </c>
       <c r="C435" s="2" t="str">
-        <f>CONCATENATE(A435,",",B435)</f>
+        <f t="shared" si="6"/>
         <v>mắt đỏ,sưng,ngứa mắt,mắt</v>
       </c>
     </row>
@@ -7199,7 +7199,7 @@
         <v>509</v>
       </c>
       <c r="C436" s="2" t="str">
-        <f>CONCATENATE(A436,",",B436)</f>
+        <f t="shared" si="6"/>
         <v>cảm giác rát,khó chịu trong mắt,mắt khó chịu,mắt</v>
       </c>
     </row>
@@ -7211,7 +7211,7 @@
         <v>509</v>
       </c>
       <c r="C437" s="2" t="str">
-        <f>CONCATENATE(A437,",",B437)</f>
+        <f t="shared" si="6"/>
         <v>mắt khô,khó chịu khi đeo kính áp tròng,mắt</v>
       </c>
     </row>
@@ -7223,7 +7223,7 @@
         <v>509</v>
       </c>
       <c r="C438" s="2" t="str">
-        <f>CONCATENATE(A438,",",B438)</f>
+        <f t="shared" si="6"/>
         <v>nhìn mờ,khó nhìn đêm,mắt</v>
       </c>
     </row>
@@ -7235,7 +7235,7 @@
         <v>509</v>
       </c>
       <c r="C439" s="2" t="str">
-        <f>CONCATENATE(A439,",",B439)</f>
+        <f t="shared" si="6"/>
         <v>cảm giác nặng mắt,khó chịu khi điều chỉnh tầm nhìn,mắt</v>
       </c>
     </row>
@@ -7247,7 +7247,7 @@
         <v>509</v>
       </c>
       <c r="C440" s="2" t="str">
-        <f>CONCATENATE(A440,",",B440)</f>
+        <f t="shared" si="6"/>
         <v>sưng mắt,mắt đỏ,mắt</v>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
         <v>509</v>
       </c>
       <c r="C441" s="2" t="str">
-        <f>CONCATENATE(A441,",",B441)</f>
+        <f t="shared" si="6"/>
         <v>cảm giác chói,khó nhìn vào ánh sáng ban ngày,mắt</v>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
         <v>509</v>
       </c>
       <c r="C442" s="2" t="str">
-        <f>CONCATENATE(A442,",",B442)</f>
+        <f t="shared" si="6"/>
         <v>nhìn mờ,khó chịu khi đọc sách,mắt</v>
       </c>
     </row>
@@ -7283,7 +7283,7 @@
         <v>509</v>
       </c>
       <c r="C443" s="2" t="str">
-        <f>CONCATENATE(A443,",",B443)</f>
+        <f t="shared" si="6"/>
         <v>đau mắt,mắt đỏ,khó nhìn xa gần,mắt</v>
       </c>
     </row>
@@ -7295,7 +7295,7 @@
         <v>509</v>
       </c>
       <c r="C444" s="2" t="str">
-        <f>CONCATENATE(A444,",",B444)</f>
+        <f t="shared" si="6"/>
         <v>cảm giác khó chịu,sưng mắt,khó nhìn vào ánh sáng,mắt</v>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
         <v>509</v>
       </c>
       <c r="C445" s="2" t="str">
-        <f>CONCATENATE(A445,",",B445)</f>
+        <f t="shared" si="6"/>
         <v>nhức mắt,mắt khô,mắt</v>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
         <v>509</v>
       </c>
       <c r="C446" s="2" t="str">
-        <f>CONCATENATE(A446,",",B446)</f>
+        <f t="shared" si="6"/>
         <v>mắt đỏ,ngứa mắt,mắt</v>
       </c>
     </row>
@@ -7331,7 +7331,7 @@
         <v>509</v>
       </c>
       <c r="C447" s="2" t="str">
-        <f>CONCATENATE(A447,",",B447)</f>
+        <f t="shared" si="6"/>
         <v>cảm giác khó chịu,mỏi mắt khi lái xe lâu,mắt</v>
       </c>
     </row>
@@ -7343,7 +7343,7 @@
         <v>509</v>
       </c>
       <c r="C448" s="2" t="str">
-        <f>CONCATENATE(A448,",",B448)</f>
+        <f t="shared" si="6"/>
         <v>sưng mắt,mắt đỏ,mắt khô khi ở trong môi trường khô hạn,mắt</v>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
         <v>509</v>
       </c>
       <c r="C449" s="2" t="str">
-        <f>CONCATENATE(A449,",",B449)</f>
+        <f t="shared" si="6"/>
         <v>cảm giác khó chịu,ngứa mắt khi tiếp xúc với các hóa chất,mắt</v>
       </c>
     </row>
@@ -7367,7 +7367,7 @@
         <v>509</v>
       </c>
       <c r="C450" s="2" t="str">
-        <f>CONCATENATE(A450,",",B450)</f>
+        <f t="shared" ref="C450:C513" si="7">CONCATENATE(A450,",",B450)</f>
         <v>nhìn mờ,khó nhìn khi sử dụng thuốc kích thích,mắt</v>
       </c>
     </row>
@@ -7379,7 +7379,7 @@
         <v>509</v>
       </c>
       <c r="C451" s="2" t="str">
-        <f>CONCATENATE(A451,",",B451)</f>
+        <f t="shared" si="7"/>
         <v>cảm giác khó chịu,đau mắt khi ở trong môi trường áp suất cao,mắt</v>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
         <v>509</v>
       </c>
       <c r="C452" s="2" t="str">
-        <f>CONCATENATE(A452,",",B452)</f>
+        <f t="shared" si="7"/>
         <v>sưng mắt,mắt đỏ,khó nhìn xa gần khi thức khuya hoặc thức quá lâu,mắt</v>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
         <v>509</v>
       </c>
       <c r="C453" s="2" t="str">
-        <f>CONCATENATE(A453,",",B453)</f>
+        <f t="shared" si="7"/>
         <v>cảm giác khó chịu,mắt đỏ,khó nhìn khi tiếp xúc với các tác nhân gây dị ứng,mắt</v>
       </c>
     </row>
@@ -7415,7 +7415,7 @@
         <v>509</v>
       </c>
       <c r="C454" s="2" t="str">
-        <f>CONCATENATE(A454,",",B454)</f>
+        <f t="shared" si="7"/>
         <v>nhìn mờ,khó nhìn khi ở môi trường thiếu ánh sáng,mắt</v>
       </c>
     </row>
@@ -7427,7 +7427,7 @@
         <v>509</v>
       </c>
       <c r="C455" s="2" t="str">
-        <f>CONCATENATE(A455,",",B455)</f>
+        <f t="shared" si="7"/>
         <v>cảm giác khó chịu,ngứa mắt khi bị viêm nhiễm đường mật,mắt</v>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
         <v>509</v>
       </c>
       <c r="C456" s="2" t="str">
-        <f>CONCATENATE(A456,",",B456)</f>
+        <f t="shared" si="7"/>
         <v>sưng mắt,mắt đỏ,khó chịu khi bị đau đầu,mắt</v>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
         <v>509</v>
       </c>
       <c r="C457" s="2" t="str">
-        <f>CONCATENATE(A457,",",B457)</f>
+        <f t="shared" si="7"/>
         <v>cảm giác khó chịu,mắt khô khi ở trong môi trường có điều hòa không khí,mắt</v>
       </c>
     </row>
@@ -7463,7 +7463,7 @@
         <v>509</v>
       </c>
       <c r="C458" s="2" t="str">
-        <f>CONCATENATE(A458,",",B458)</f>
+        <f t="shared" si="7"/>
         <v>nhìn mờ,khó nhìn khi ở môi trường có độ ẩm cao,mắt</v>
       </c>
     </row>
@@ -7475,7 +7475,7 @@
         <v>509</v>
       </c>
       <c r="C459" s="2" t="str">
-        <f>CONCATENATE(A459,",",B459)</f>
+        <f t="shared" si="7"/>
         <v>cảm giác khó chịu,mắt đỏ khi bị viêm kết mạc,mắt</v>
       </c>
     </row>
@@ -7487,7 +7487,7 @@
         <v>509</v>
       </c>
       <c r="C460" s="2" t="str">
-        <f>CONCATENATE(A460,",",B460)</f>
+        <f t="shared" si="7"/>
         <v>sưng mắt,mắt đỏ,khó chịu khi bị viêm miễn dịch,mắt</v>
       </c>
     </row>
@@ -7499,7 +7499,7 @@
         <v>509</v>
       </c>
       <c r="C461" s="2" t="str">
-        <f>CONCATENATE(A461,",",B461)</f>
+        <f t="shared" si="7"/>
         <v>cảm giác khó chịu,mắt khô khi bị rối loạn giấc ngủ,mắt</v>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
         <v>509</v>
       </c>
       <c r="C462" s="2" t="str">
-        <f>CONCATENATE(A462,",",B462)</f>
+        <f t="shared" si="7"/>
         <v>cảm giác khó chịu,khó nhìn rõ khi đeo kính cận,mắt</v>
       </c>
     </row>
@@ -7523,7 +7523,7 @@
         <v>509</v>
       </c>
       <c r="C463" s="2" t="str">
-        <f>CONCATENATE(A463,",",B463)</f>
+        <f t="shared" si="7"/>
         <v>đau mắt,nhức mắt khi đọc sách hoặc làm việc trên máy tính trong thời gian dài,mắt</v>
       </c>
     </row>
@@ -7535,7 +7535,7 @@
         <v>509</v>
       </c>
       <c r="C464" s="2" t="str">
-        <f>CONCATENATE(A464,",",B464)</f>
+        <f t="shared" si="7"/>
         <v>nhìn mờ,khó nhìn rõ khi ở trong môi trường bụi bẩn hoặc khói bụi,mắt</v>
       </c>
     </row>
@@ -7547,7 +7547,7 @@
         <v>509</v>
       </c>
       <c r="C465" s="2" t="str">
-        <f>CONCATENATE(A465,",",B465)</f>
+        <f t="shared" si="7"/>
         <v>cảm giác chói mắt,khó nhìn khi tiếp xúc với ánh sáng mạnh,mắt</v>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
         <v>509</v>
       </c>
       <c r="C466" s="2" t="str">
-        <f>CONCATENATE(A466,",",B466)</f>
+        <f t="shared" si="7"/>
         <v>mắt thường xuyên chảy nước,khó khăn khi thở và đau đầu khi tiếp xúc với mùi hóa chất,mắt</v>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
         <v>509</v>
       </c>
       <c r="C467" s="2" t="str">
-        <f>CONCATENATE(A467,",",B467)</f>
+        <f t="shared" si="7"/>
         <v>sưng mắt,mắt đỏ,khó nhìn rõ khi tiếp xúc với ánh nắng mặt trời,mắt</v>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
         <v>509</v>
       </c>
       <c r="C468" s="2" t="str">
-        <f>CONCATENATE(A468,",",B468)</f>
+        <f t="shared" si="7"/>
         <v>cảm giác khó chịu,ngứa mắt khi bị nhiễm trùng khuẩn hoặc vi rút,mắt</v>
       </c>
     </row>
@@ -7595,7 +7595,7 @@
         <v>509</v>
       </c>
       <c r="C469" s="2" t="str">
-        <f>CONCATENATE(A469,",",B469)</f>
+        <f t="shared" si="7"/>
         <v>nhìn mờ,khó nhìn rõ khi điều chỉnh từ môi trường sáng sang tối hoặc ngược lại,mắt</v>
       </c>
     </row>
@@ -7607,7 +7607,7 @@
         <v>509</v>
       </c>
       <c r="C470" s="2" t="str">
-        <f>CONCATENATE(A470,",",B470)</f>
+        <f t="shared" si="7"/>
         <v>cảm giác khó chịu,mất cân bằng khi đi thang máy hoặc xe hơi,mắt</v>
       </c>
     </row>
@@ -7619,7 +7619,7 @@
         <v>509</v>
       </c>
       <c r="C471" s="2" t="str">
-        <f>CONCATENATE(A471,",",B471)</f>
+        <f t="shared" si="7"/>
         <v>mắt đỏ,sưng,khó nhìn rõ khi bị dị ứng với thức ăn hoặc thuốc,mắt</v>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
         <v>411</v>
       </c>
       <c r="C472" s="2" t="str">
-        <f>CONCATENATE(A472,",",B472)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp gối,sưng đỏ,xương khớp</v>
       </c>
     </row>
@@ -7643,7 +7643,7 @@
         <v>411</v>
       </c>
       <c r="C473" s="2" t="str">
-        <f>CONCATENATE(A473,",",B473)</f>
+        <f t="shared" si="7"/>
         <v>đau cổ tay,tê bì,xương khớp</v>
       </c>
     </row>
@@ -7655,7 +7655,7 @@
         <v>411</v>
       </c>
       <c r="C474" s="2" t="str">
-        <f>CONCATENATE(A474,",",B474)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp háng,khó di chuyển,xương khớp</v>
       </c>
     </row>
@@ -7667,7 +7667,7 @@
         <v>411</v>
       </c>
       <c r="C475" s="2" t="str">
-        <f>CONCATENATE(A475,",",B475)</f>
+        <f t="shared" si="7"/>
         <v>đau vai,cổ tay và cổ,xương khớp</v>
       </c>
     </row>
@@ -7679,7 +7679,7 @@
         <v>411</v>
       </c>
       <c r="C476" s="2" t="str">
-        <f>CONCATENATE(A476,",",B476)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp ngón tay,khó khăn trong việc cầm nắm vật dụng,xương khớp</v>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
         <v>411</v>
       </c>
       <c r="C477" s="2" t="str">
-        <f>CONCATENATE(A477,",",B477)</f>
+        <f t="shared" si="7"/>
         <v>sưng khớp,đau nhức toàn thân,xương khớp</v>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
         <v>411</v>
       </c>
       <c r="C478" s="2" t="str">
-        <f>CONCATENATE(A478,",",B478)</f>
+        <f t="shared" si="7"/>
         <v>đau cổ chân,khó đi lại,xương khớp</v>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
         <v>411</v>
       </c>
       <c r="C479" s="2" t="str">
-        <f>CONCATENATE(A479,",",B479)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp đầu gối,khó khăn trong việc leo cầu thang,xương khớp</v>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
         <v>411</v>
       </c>
       <c r="C480" s="2" t="str">
-        <f>CONCATENATE(A480,",",B480)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp mắt cá chân,khó di chuyển,xương khớp</v>
       </c>
     </row>
@@ -7739,7 +7739,7 @@
         <v>411</v>
       </c>
       <c r="C481" s="2" t="str">
-        <f>CONCATENATE(A481,",",B481)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp ngón chân,khó di chuyển,xương khớp</v>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
         <v>411</v>
       </c>
       <c r="C482" s="2" t="str">
-        <f>CONCATENATE(A482,",",B482)</f>
+        <f t="shared" si="7"/>
         <v>sưng khớp,đau nhức khớp chân,xương khớp</v>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
         <v>411</v>
       </c>
       <c r="C483" s="2" t="str">
-        <f>CONCATENATE(A483,",",B483)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp cổ,lưng và vai,xương khớp</v>
       </c>
     </row>
@@ -7775,7 +7775,7 @@
         <v>411</v>
       </c>
       <c r="C484" s="2" t="str">
-        <f>CONCATENATE(A484,",",B484)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp đầu gối,bị giãn cơ,xương khớp</v>
       </c>
     </row>
@@ -7787,7 +7787,7 @@
         <v>411</v>
       </c>
       <c r="C485" s="2" t="str">
-        <f>CONCATENATE(A485,",",B485)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp khác nhau trên cơ thể,xương khớp</v>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
         <v>411</v>
       </c>
       <c r="C486" s="2" t="str">
-        <f>CONCATENATE(A486,",",B486)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp hông,khó di chuyển,xương khớp</v>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
         <v>411</v>
       </c>
       <c r="C487" s="2" t="str">
-        <f>CONCATENATE(A487,",",B487)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp bàn tay,khó khăn trong việc cầm vật,xương khớp</v>
       </c>
     </row>
@@ -7823,7 +7823,7 @@
         <v>411</v>
       </c>
       <c r="C488" s="2" t="str">
-        <f>CONCATENATE(A488,",",B488)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp mắt cá chân,sưng đỏ,xương khớp</v>
       </c>
     </row>
@@ -7835,7 +7835,7 @@
         <v>411</v>
       </c>
       <c r="C489" s="2" t="str">
-        <f>CONCATENATE(A489,",",B489)</f>
+        <f t="shared" si="7"/>
         <v>sưng khớp,đau nhức khớp tay,xương khớp</v>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
         <v>411</v>
       </c>
       <c r="C490" s="2" t="str">
-        <f>CONCATENATE(A490,",",B490)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp ngón tay,tê bì,xương khớp</v>
       </c>
     </row>
@@ -7859,7 +7859,7 @@
         <v>411</v>
       </c>
       <c r="C491" s="2" t="str">
-        <f>CONCATENATE(A491,",",B491)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp bàn chân,sưng đỏ,xương khớp</v>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
         <v>411</v>
       </c>
       <c r="C492" s="2" t="str">
-        <f>CONCATENATE(A492,",",B492)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp vai,khó di chuyển,xương khớp</v>
       </c>
     </row>
@@ -7883,7 +7883,7 @@
         <v>411</v>
       </c>
       <c r="C493" s="2" t="str">
-        <f>CONCATENATE(A493,",",B493)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp mắt cá chân,khó khăn trong việc di chuyển,xương khớp</v>
       </c>
     </row>
@@ -7895,7 +7895,7 @@
         <v>411</v>
       </c>
       <c r="C494" s="2" t="str">
-        <f>CONCATENATE(A494,",",B494)</f>
+        <f t="shared" si="7"/>
         <v>sưng khớp,đau nhức toàn thân,xương khớp</v>
       </c>
     </row>
@@ -7907,7 +7907,7 @@
         <v>411</v>
       </c>
       <c r="C495" s="2" t="str">
-        <f>CONCATENATE(A495,",",B495)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp đầu gối,khó khăn trong việc đứng lâu,xương khớp</v>
       </c>
     </row>
@@ -7919,7 +7919,7 @@
         <v>411</v>
       </c>
       <c r="C496" s="2" t="str">
-        <f>CONCATENATE(A496,",",B496)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp cổ tay,khó khăn trong việc vận động,xương khớp</v>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
         <v>411</v>
       </c>
       <c r="C497" s="2" t="str">
-        <f>CONCATENATE(A497,",",B497)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp ngón chân,khó khăn trong việc đi bộ,xương khớp</v>
       </c>
     </row>
@@ -7943,7 +7943,7 @@
         <v>411</v>
       </c>
       <c r="C498" s="2" t="str">
-        <f>CONCATENATE(A498,",",B498)</f>
+        <f t="shared" si="7"/>
         <v>sưng khớp,đau nhức khớp chân,xương khớp</v>
       </c>
     </row>
@@ -7955,7 +7955,7 @@
         <v>411</v>
       </c>
       <c r="C499" s="2" t="str">
-        <f>CONCATENATE(A499,",",B499)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp cổ chân,khó di chuyển,xương khớp</v>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
         <v>411</v>
       </c>
       <c r="C500" s="2" t="str">
-        <f>CONCATENATE(A500,",",B500)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp đầu gối,sưng đỏ,xương khớp</v>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
         <v>411</v>
       </c>
       <c r="C501" s="2" t="str">
-        <f>CONCATENATE(A501,",",B501)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp khác nhau trên cơ thể,xương khớp</v>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
         <v>411</v>
       </c>
       <c r="C502" s="2" t="str">
-        <f>CONCATENATE(A502,",",B502)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp cổ tay,tê bì,xương khớp</v>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
         <v>411</v>
       </c>
       <c r="C503" s="2" t="str">
-        <f>CONCATENATE(A503,",",B503)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp ngón tay,khó khăn trong việc cầm nắm,xương khớp</v>
       </c>
     </row>
@@ -8015,7 +8015,7 @@
         <v>411</v>
       </c>
       <c r="C504" s="2" t="str">
-        <f>CONCATENATE(A504,",",B504)</f>
+        <f t="shared" si="7"/>
         <v>sưng khớp,đau nhức toàn thân,xương khớp</v>
       </c>
     </row>
@@ -8027,7 +8027,7 @@
         <v>411</v>
       </c>
       <c r="C505" s="2" t="str">
-        <f>CONCATENATE(A505,",",B505)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp cổ,lưng và vai,xương khớp</v>
       </c>
     </row>
@@ -8039,7 +8039,7 @@
         <v>411</v>
       </c>
       <c r="C506" s="2" t="str">
-        <f>CONCATENATE(A506,",",B506)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp hông,khó di chuyển,xương khớp</v>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
         <v>411</v>
       </c>
       <c r="C507" s="2" t="str">
-        <f>CONCATENATE(A507,",",B507)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp mắt cá chân,bị giãn cơ,xương khớp</v>
       </c>
     </row>
@@ -8063,7 +8063,7 @@
         <v>411</v>
       </c>
       <c r="C508" s="2" t="str">
-        <f>CONCATENATE(A508,",",B508)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp ngón chân,khó di chuyển,xương khớp</v>
       </c>
     </row>
@@ -8075,7 +8075,7 @@
         <v>411</v>
       </c>
       <c r="C509" s="2" t="str">
-        <f>CONCATENATE(A509,",",B509)</f>
+        <f t="shared" si="7"/>
         <v>sưng khớp,đau nhức khớp tay,xương khớp</v>
       </c>
     </row>
@@ -8087,7 +8087,7 @@
         <v>411</v>
       </c>
       <c r="C510" s="2" t="str">
-        <f>CONCATENATE(A510,",",B510)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp đầu gối,xương khớp</v>
       </c>
     </row>
@@ -8099,7 +8099,7 @@
         <v>411</v>
       </c>
       <c r="C511" s="2" t="str">
-        <f>CONCATENATE(A511,",",B511)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp cổ chân,khó khăn trong việc tập thể dục,xương khớp</v>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
         <v>411</v>
       </c>
       <c r="C512" s="2" t="str">
-        <f>CONCATENATE(A512,",",B512)</f>
+        <f t="shared" si="7"/>
         <v>sưng khớp,đau nhức toàn thân,đặc biệt là buổi sáng,xương khớp</v>
       </c>
     </row>
@@ -8123,7 +8123,7 @@
         <v>411</v>
       </c>
       <c r="C513" s="2" t="str">
-        <f>CONCATENATE(A513,",",B513)</f>
+        <f t="shared" si="7"/>
         <v>đau khớp vai,cổ tay và đầu gối,xương khớp</v>
       </c>
     </row>
@@ -8135,7 +8135,7 @@
         <v>411</v>
       </c>
       <c r="C514" s="2" t="str">
-        <f>CONCATENATE(A514,",",B514)</f>
+        <f t="shared" ref="C514:C577" si="8">CONCATENATE(A514,",",B514)</f>
         <v>đau khớp ngón tay,khó khăn trong việc vận động,xương khớp</v>
       </c>
     </row>
@@ -8147,7 +8147,7 @@
         <v>411</v>
       </c>
       <c r="C515" s="2" t="str">
-        <f>CONCATENATE(A515,",",B515)</f>
+        <f t="shared" si="8"/>
         <v>đau khớp mắt cá chân,khó di chuyển trên địa hình không bằng phẳng,xương khớp</v>
       </c>
     </row>
@@ -8159,7 +8159,7 @@
         <v>411</v>
       </c>
       <c r="C516" s="2" t="str">
-        <f>CONCATENATE(A516,",",B516)</f>
+        <f t="shared" si="8"/>
         <v>sưng khớp,đau nhức khớp cổ chân và đầu gối,xương khớp</v>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
         <v>411</v>
       </c>
       <c r="C517" s="2" t="str">
-        <f>CONCATENATE(A517,",",B517)</f>
+        <f t="shared" si="8"/>
         <v>đau khớp bàn tay,khó khăn trong việc thực hiện các công việc hàng ngày như nấu ăn,vệ sinh,xương khớp</v>
       </c>
     </row>
@@ -8183,7 +8183,7 @@
         <v>411</v>
       </c>
       <c r="C518" s="2" t="str">
-        <f>CONCATENATE(A518,",",B518)</f>
+        <f t="shared" si="8"/>
         <v>đau khớp hông,cảm giác khó chịu khi nằm nhiều giờ liền,xương khớp</v>
       </c>
     </row>
@@ -8195,7 +8195,7 @@
         <v>411</v>
       </c>
       <c r="C519" s="2" t="str">
-        <f>CONCATENATE(A519,",",B519)</f>
+        <f t="shared" si="8"/>
         <v>sưng khớp,đau nhức khớp vai và cổ tay,xương khớp</v>
       </c>
     </row>
@@ -8207,7 +8207,7 @@
         <v>411</v>
       </c>
       <c r="C520" s="2" t="str">
-        <f>CONCATENATE(A520,",",B520)</f>
+        <f t="shared" si="8"/>
         <v>đau khớp đầu gối,khó khăn trong việc chạy và nhảy,xương khớp</v>
       </c>
     </row>
@@ -8219,7 +8219,7 @@
         <v>411</v>
       </c>
       <c r="C521" s="2" t="str">
-        <f>CONCATENATE(A521,",",B521)</f>
+        <f t="shared" si="8"/>
         <v>đau khớp cổ tay,khó khăn trong việc sử dụng máy tính hoặc điện thoại di động,xương khớp</v>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
         <v>411</v>
       </c>
       <c r="C522" s="2" t="str">
-        <f>CONCATENATE(A522,",",B522)</f>
+        <f t="shared" si="8"/>
         <v>sưng khớp,đau nhức khớp cổ tay và ngón tay,xương khớp</v>
       </c>
     </row>
@@ -8243,7 +8243,7 @@
         <v>411</v>
       </c>
       <c r="C523" s="2" t="str">
-        <f>CONCATENATE(A523,",",B523)</f>
+        <f t="shared" si="8"/>
         <v>đau khớp ngón tay cái,khó khăn trong việc cầm vật nặng,xương khớp</v>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
         <v>411</v>
       </c>
       <c r="C524" s="2" t="str">
-        <f>CONCATENATE(A524,",",B524)</f>
+        <f t="shared" si="8"/>
         <v>đau khớp gối,khó khăn trong việc leo cầu thang hoặc đi bộ trên địa hình dốc,xương khớp</v>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
         <v>411</v>
       </c>
       <c r="C525" s="2" t="str">
-        <f>CONCATENATE(A525,",",B525)</f>
+        <f t="shared" si="8"/>
         <v>sưng khớp,đau nhức khớp cổ và vai,xương khớp</v>
       </c>
     </row>
@@ -8279,7 +8279,7 @@
         <v>411</v>
       </c>
       <c r="C526" s="2" t="str">
-        <f>CONCATENATE(A526,",",B526)</f>
+        <f t="shared" si="8"/>
         <v>đau khớp cổ chân,khó khăn trong việc đi bộ hoặc chạy,xương khớp</v>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
         <v>411</v>
       </c>
       <c r="C527" s="2" t="str">
-        <f>CONCATENATE(A527,",",B527)</f>
+        <f t="shared" si="8"/>
         <v>đau khớp ngón chân cái,khó khăn trong việc mang giày cao gót hoặc giày thể thao,xương khớp</v>
       </c>
     </row>
@@ -8303,7 +8303,7 @@
         <v>411</v>
       </c>
       <c r="C528" s="2" t="str">
-        <f>CONCATENATE(A528,",",B528)</f>
+        <f t="shared" si="8"/>
         <v>sưng khớp,đau nhức khớp khác nhau trên cơ thể,xương khớp</v>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
         <v>411</v>
       </c>
       <c r="C529" s="2" t="str">
-        <f>CONCATENATE(A529,",",B529)</f>
+        <f t="shared" si="8"/>
         <v>đau khớp cổ tay và bàn tay,khó khăn trong việc thực hiện các công việc cần sự tinh tế như việc vẽ tranh hoặc đánh đàn,xương khớp</v>
       </c>
     </row>
@@ -8327,7 +8327,7 @@
         <v>411</v>
       </c>
       <c r="C530" s="2" t="str">
-        <f>CONCATENATE(A530,",",B530)</f>
+        <f t="shared" si="8"/>
         <v>đau khớp cổ tay và bàn tay,khó khăn trong việc thực hiện các công việc cần sự tập trung và chính xác như làm việc với máy móc,xương khớp</v>
       </c>
     </row>
